--- a/src/data/raw/COFORGE.NS_data.xlsx
+++ b/src/data/raw/COFORGE.NS_data.xlsx
@@ -461,16 +461,16 @@
         <v>44929</v>
       </c>
       <c r="B2" t="n">
-        <v>3885.7578125</v>
+        <v>3885.75732421875</v>
       </c>
       <c r="C2" t="n">
-        <v>3897.793362360975</v>
+        <v>3897.792872567348</v>
       </c>
       <c r="D2" t="n">
-        <v>3795.563290915124</v>
+        <v>3795.562813967646</v>
       </c>
       <c r="E2" t="n">
-        <v>3827.223194838071</v>
+        <v>3827.222713912235</v>
       </c>
       <c r="F2" t="n">
         <v>319505</v>
@@ -481,16 +481,16 @@
         <v>44930</v>
       </c>
       <c r="B3" t="n">
-        <v>3817.79736328125</v>
+        <v>3817.797607421875</v>
       </c>
       <c r="C3" t="n">
-        <v>3881.358843723294</v>
+        <v>3881.35909192855</v>
       </c>
       <c r="D3" t="n">
-        <v>3804.843482965698</v>
+        <v>3804.843726277948</v>
       </c>
       <c r="E3" t="n">
-        <v>3875.606939464096</v>
+        <v>3875.60718730153</v>
       </c>
       <c r="F3" t="n">
         <v>130496</v>
@@ -501,16 +501,16 @@
         <v>44931</v>
       </c>
       <c r="B4" t="n">
-        <v>3798.656494140625</v>
+        <v>3798.65673828125</v>
       </c>
       <c r="C4" t="n">
-        <v>3840.660194719611</v>
+        <v>3840.660441559825</v>
       </c>
       <c r="D4" t="n">
-        <v>3777.195478034923</v>
+        <v>3777.195720796243</v>
       </c>
       <c r="E4" t="n">
-        <v>3826.256242129945</v>
+        <v>3826.256488044412</v>
       </c>
       <c r="F4" t="n">
         <v>95607</v>
@@ -581,16 +581,16 @@
         <v>44937</v>
       </c>
       <c r="B8" t="n">
-        <v>3805.08544921875</v>
+        <v>3805.085205078125</v>
       </c>
       <c r="C8" t="n">
-        <v>3923.894579707344</v>
+        <v>3923.894327943727</v>
       </c>
       <c r="D8" t="n">
-        <v>3781.207409675899</v>
+        <v>3781.207167067329</v>
       </c>
       <c r="E8" t="n">
-        <v>3858.109603667556</v>
+        <v>3858.109356124813</v>
       </c>
       <c r="F8" t="n">
         <v>399848</v>
@@ -621,16 +621,16 @@
         <v>44939</v>
       </c>
       <c r="B10" t="n">
-        <v>3755.154296875</v>
+        <v>3755.154541015625</v>
       </c>
       <c r="C10" t="n">
-        <v>3796.288048293517</v>
+        <v>3796.288295108445</v>
       </c>
       <c r="D10" t="n">
-        <v>3664.331511855507</v>
+        <v>3664.331750091307</v>
       </c>
       <c r="E10" t="n">
-        <v>3796.288048293517</v>
+        <v>3796.288295108445</v>
       </c>
       <c r="F10" t="n">
         <v>351833</v>
@@ -661,16 +661,16 @@
         <v>44943</v>
       </c>
       <c r="B12" t="n">
-        <v>3787.587890625</v>
+        <v>3787.58740234375</v>
       </c>
       <c r="C12" t="n">
-        <v>3805.907085516917</v>
+        <v>3805.906594874027</v>
       </c>
       <c r="D12" t="n">
-        <v>3751.046030694821</v>
+        <v>3751.045547124407</v>
       </c>
       <c r="E12" t="n">
-        <v>3768.736955487892</v>
+        <v>3768.736469636833</v>
       </c>
       <c r="F12" t="n">
         <v>139585</v>
@@ -701,16 +701,16 @@
         <v>44945</v>
       </c>
       <c r="B14" t="n">
-        <v>3834.521484375</v>
+        <v>3834.521728515625</v>
       </c>
       <c r="C14" t="n">
-        <v>3861.057750454561</v>
+        <v>3861.057996284727</v>
       </c>
       <c r="D14" t="n">
-        <v>3748.918867366747</v>
+        <v>3748.919106057128</v>
       </c>
       <c r="E14" t="n">
-        <v>3770.186586573057</v>
+        <v>3770.186826617535</v>
       </c>
       <c r="F14" t="n">
         <v>198704</v>
@@ -721,16 +721,16 @@
         <v>44946</v>
       </c>
       <c r="B15" t="n">
-        <v>3965.46337890625</v>
+        <v>3965.463134765625</v>
       </c>
       <c r="C15" t="n">
-        <v>4108.537142942848</v>
+        <v>4108.536889993638</v>
       </c>
       <c r="D15" t="n">
-        <v>3906.493786972247</v>
+        <v>3906.493546462187</v>
       </c>
       <c r="E15" t="n">
-        <v>3906.493786972247</v>
+        <v>3906.493546462187</v>
       </c>
       <c r="F15" t="n">
         <v>1986822</v>
@@ -741,16 +741,16 @@
         <v>44949</v>
       </c>
       <c r="B16" t="n">
-        <v>4213.8125</v>
+        <v>4213.8115234375</v>
       </c>
       <c r="C16" t="n">
-        <v>4269.97871699055</v>
+        <v>4269.977727411377</v>
       </c>
       <c r="D16" t="n">
-        <v>3932.788591343876</v>
+        <v>3932.787679909431</v>
       </c>
       <c r="E16" t="n">
-        <v>3988.66474672923</v>
+        <v>3988.663822345334</v>
       </c>
       <c r="F16" t="n">
         <v>1461912</v>
@@ -761,16 +761,16 @@
         <v>44950</v>
       </c>
       <c r="B17" t="n">
-        <v>4180.07421875</v>
+        <v>4180.07373046875</v>
       </c>
       <c r="C17" t="n">
-        <v>4311.547413419288</v>
+        <v>4311.546909780441</v>
       </c>
       <c r="D17" t="n">
-        <v>4158.80649608291</v>
+        <v>4158.806010285976</v>
       </c>
       <c r="E17" t="n">
-        <v>4213.812466211611</v>
+        <v>4213.811973989341</v>
       </c>
       <c r="F17" t="n">
         <v>1169538</v>
@@ -801,16 +801,16 @@
         <v>44953</v>
       </c>
       <c r="B19" t="n">
-        <v>4151.16943359375</v>
+        <v>4151.169921875</v>
       </c>
       <c r="C19" t="n">
-        <v>4225.703226807468</v>
+        <v>4225.703723855755</v>
       </c>
       <c r="D19" t="n">
-        <v>4108.537223527422</v>
+        <v>4108.537706794058</v>
       </c>
       <c r="E19" t="n">
-        <v>4161.561615982672</v>
+        <v>4161.562105486303</v>
       </c>
       <c r="F19" t="n">
         <v>744813</v>
@@ -821,16 +821,16 @@
         <v>44956</v>
       </c>
       <c r="B20" t="n">
-        <v>4271.5732421875</v>
+        <v>4271.57373046875</v>
       </c>
       <c r="C20" t="n">
-        <v>4306.181907025752</v>
+        <v>4306.182399263099</v>
       </c>
       <c r="D20" t="n">
-        <v>4124.197889143893</v>
+        <v>4124.198360578745</v>
       </c>
       <c r="E20" t="n">
-        <v>4166.539798516917</v>
+        <v>4166.540274791851</v>
       </c>
       <c r="F20" t="n">
         <v>578458</v>
@@ -861,16 +861,16 @@
         <v>44958</v>
       </c>
       <c r="B22" t="n">
-        <v>4207.8662109375</v>
+        <v>4207.8671875</v>
       </c>
       <c r="C22" t="n">
-        <v>4282.255074708796</v>
+        <v>4282.25606853548</v>
       </c>
       <c r="D22" t="n">
-        <v>4176.25446044723</v>
+        <v>4176.255429673268</v>
       </c>
       <c r="E22" t="n">
-        <v>4253.543467491815</v>
+        <v>4253.544454655103</v>
       </c>
       <c r="F22" t="n">
         <v>162450</v>
@@ -881,16 +881,16 @@
         <v>44959</v>
       </c>
       <c r="B23" t="n">
-        <v>4305.10791015625</v>
+        <v>4305.107421875</v>
       </c>
       <c r="C23" t="n">
-        <v>4380.939425438353</v>
+        <v>4380.938928556365</v>
       </c>
       <c r="D23" t="n">
-        <v>4225.878059770193</v>
+        <v>4225.877580475119</v>
       </c>
       <c r="E23" t="n">
-        <v>4262.483173243433</v>
+        <v>4262.48268979664</v>
       </c>
       <c r="F23" t="n">
         <v>634419</v>
@@ -901,16 +901,16 @@
         <v>44960</v>
       </c>
       <c r="B24" t="n">
-        <v>4201.45068359375</v>
+        <v>4201.45166015625</v>
       </c>
       <c r="C24" t="n">
-        <v>4375.657789687073</v>
+        <v>4375.658806741331</v>
       </c>
       <c r="D24" t="n">
-        <v>4185.458625999336</v>
+        <v>4185.459598844728</v>
       </c>
       <c r="E24" t="n">
-        <v>4339.334149893025</v>
+        <v>4339.335158504413</v>
       </c>
       <c r="F24" t="n">
         <v>448859</v>
@@ -921,16 +921,16 @@
         <v>44963</v>
       </c>
       <c r="B25" t="n">
-        <v>4210.42236328125</v>
+        <v>4210.421875</v>
       </c>
       <c r="C25" t="n">
-        <v>4234.947300036724</v>
+        <v>4234.946808911325</v>
       </c>
       <c r="D25" t="n">
-        <v>4154.059956208708</v>
+        <v>4154.059474463787</v>
       </c>
       <c r="E25" t="n">
-        <v>4208.667317135395</v>
+        <v>4208.666829057677</v>
       </c>
       <c r="F25" t="n">
         <v>175369</v>
@@ -961,16 +961,16 @@
         <v>44965</v>
       </c>
       <c r="B27" t="n">
-        <v>4221.78271484375</v>
+        <v>4221.78369140625</v>
       </c>
       <c r="C27" t="n">
-        <v>4362.737764407423</v>
+        <v>4362.738773574968</v>
       </c>
       <c r="D27" t="n">
-        <v>4204.766481923292</v>
+        <v>4204.767454549678</v>
       </c>
       <c r="E27" t="n">
-        <v>4236.068294235783</v>
+        <v>4236.069274102755</v>
       </c>
       <c r="F27" t="n">
         <v>740144</v>
@@ -981,16 +981,16 @@
         <v>44966</v>
       </c>
       <c r="B28" t="n">
-        <v>4232.5576171875</v>
+        <v>4232.55859375</v>
       </c>
       <c r="C28" t="n">
-        <v>4251.572678478862</v>
+        <v>4251.573659428637</v>
       </c>
       <c r="D28" t="n">
-        <v>4168.686513875489</v>
+        <v>4168.687475701244</v>
       </c>
       <c r="E28" t="n">
-        <v>4221.343606682338</v>
+        <v>4221.34458065747</v>
       </c>
       <c r="F28" t="n">
         <v>329010</v>
@@ -1001,16 +1001,16 @@
         <v>44967</v>
       </c>
       <c r="B29" t="n">
-        <v>4226.51171875</v>
+        <v>4226.51123046875</v>
       </c>
       <c r="C29" t="n">
-        <v>4261.324099214951</v>
+        <v>4261.32360691189</v>
       </c>
       <c r="D29" t="n">
-        <v>4193.064903117686</v>
+        <v>4193.064418700486</v>
       </c>
       <c r="E29" t="n">
-        <v>4222.367410415523</v>
+        <v>4222.366922613058</v>
       </c>
       <c r="F29" t="n">
         <v>225248</v>
@@ -1021,16 +1021,16 @@
         <v>44970</v>
       </c>
       <c r="B30" t="n">
-        <v>3931.973876953125</v>
+        <v>3931.97412109375</v>
       </c>
       <c r="C30" t="n">
-        <v>4022.173538089752</v>
+        <v>4022.173787830974</v>
       </c>
       <c r="D30" t="n">
-        <v>3900.81847404464</v>
+        <v>3900.818716250791</v>
       </c>
       <c r="E30" t="n">
-        <v>3949.28246057664</v>
+        <v>3949.282705791974</v>
       </c>
       <c r="F30" t="n">
         <v>8266976</v>
@@ -1041,16 +1041,16 @@
         <v>44971</v>
       </c>
       <c r="B31" t="n">
-        <v>3978.4384765625</v>
+        <v>3978.438720703125</v>
       </c>
       <c r="C31" t="n">
-        <v>3993.163055829988</v>
+        <v>3993.163300874201</v>
       </c>
       <c r="D31" t="n">
-        <v>3910.276887393956</v>
+        <v>3910.277127351781</v>
       </c>
       <c r="E31" t="n">
-        <v>3917.102807147512</v>
+        <v>3917.103047524216</v>
       </c>
       <c r="F31" t="n">
         <v>463716</v>
@@ -1101,16 +1101,16 @@
         <v>44974</v>
       </c>
       <c r="B34" t="n">
-        <v>4099.55029296875</v>
+        <v>4099.55078125</v>
       </c>
       <c r="C34" t="n">
-        <v>4122.319707936033</v>
+        <v>4122.320198929257</v>
       </c>
       <c r="D34" t="n">
-        <v>4048.745848343501</v>
+        <v>4048.746330573634</v>
       </c>
       <c r="E34" t="n">
-        <v>4090.676501397155</v>
+        <v>4090.676988621482</v>
       </c>
       <c r="F34" t="n">
         <v>352234</v>
@@ -1121,16 +1121,16 @@
         <v>44977</v>
       </c>
       <c r="B35" t="n">
-        <v>4227.6337890625</v>
+        <v>4227.63330078125</v>
       </c>
       <c r="C35" t="n">
-        <v>4256.302558150878</v>
+        <v>4256.302066558455</v>
       </c>
       <c r="D35" t="n">
-        <v>4071.173759167979</v>
+        <v>4071.173288957475</v>
       </c>
       <c r="E35" t="n">
-        <v>4099.550179279919</v>
+        <v>4099.549705792009</v>
       </c>
       <c r="F35" t="n">
         <v>582774</v>
@@ -1181,16 +1181,16 @@
         <v>44980</v>
       </c>
       <c r="B38" t="n">
-        <v>4310.95849609375</v>
+        <v>4310.958984375</v>
       </c>
       <c r="C38" t="n">
-        <v>4320.661244395622</v>
+        <v>4320.661733775855</v>
       </c>
       <c r="D38" t="n">
-        <v>4216.663571348871</v>
+        <v>4216.664048949795</v>
       </c>
       <c r="E38" t="n">
-        <v>4266.200058140029</v>
+        <v>4266.200541351709</v>
       </c>
       <c r="F38" t="n">
         <v>459676</v>
@@ -1201,16 +1201,16 @@
         <v>44981</v>
       </c>
       <c r="B39" t="n">
-        <v>4268.6376953125</v>
+        <v>4268.63818359375</v>
       </c>
       <c r="C39" t="n">
-        <v>4329.583407695603</v>
+        <v>4329.583902948315</v>
       </c>
       <c r="D39" t="n">
-        <v>4249.817849783949</v>
+        <v>4249.818335912433</v>
       </c>
       <c r="E39" t="n">
-        <v>4319.832093714306</v>
+        <v>4319.832587851584</v>
       </c>
       <c r="F39" t="n">
         <v>328145</v>
@@ -1241,16 +1241,16 @@
         <v>44985</v>
       </c>
       <c r="B41" t="n">
-        <v>4191.7490234375</v>
+        <v>4191.74853515625</v>
       </c>
       <c r="C41" t="n">
-        <v>4229.974369570047</v>
+        <v>4229.973876836069</v>
       </c>
       <c r="D41" t="n">
-        <v>4158.594551676688</v>
+        <v>4158.594067257479</v>
       </c>
       <c r="E41" t="n">
-        <v>4167.712126638599</v>
+        <v>4167.711641157317</v>
       </c>
       <c r="F41" t="n">
         <v>248384</v>
@@ -1261,16 +1261,16 @@
         <v>44986</v>
       </c>
       <c r="B42" t="n">
-        <v>4193.40673828125</v>
+        <v>4193.40625</v>
       </c>
       <c r="C42" t="n">
-        <v>4201.841530321443</v>
+        <v>4201.841041058045</v>
       </c>
       <c r="D42" t="n">
-        <v>4135.873981193999</v>
+        <v>4135.873499611876</v>
       </c>
       <c r="E42" t="n">
-        <v>4186.824600817878</v>
+        <v>4186.824113303053</v>
       </c>
       <c r="F42" t="n">
         <v>308649</v>
@@ -1281,16 +1281,16 @@
         <v>44987</v>
       </c>
       <c r="B43" t="n">
-        <v>4144.01611328125</v>
+        <v>4144.01708984375</v>
       </c>
       <c r="C43" t="n">
-        <v>4193.162640758806</v>
+        <v>4193.163628902983</v>
       </c>
       <c r="D43" t="n">
-        <v>4120.466308990955</v>
+        <v>4120.467280003802</v>
       </c>
       <c r="E43" t="n">
-        <v>4193.065032390842</v>
+        <v>4193.066020512017</v>
       </c>
       <c r="F43" t="n">
         <v>189586</v>
@@ -1301,16 +1301,16 @@
         <v>44988</v>
       </c>
       <c r="B44" t="n">
-        <v>4152.4990234375</v>
+        <v>4152.5</v>
       </c>
       <c r="C44" t="n">
-        <v>4191.455709241008</v>
+        <v>4191.456694965133</v>
       </c>
       <c r="D44" t="n">
-        <v>4134.556702785155</v>
+        <v>4134.557675128076</v>
       </c>
       <c r="E44" t="n">
-        <v>4183.313267676489</v>
+        <v>4183.314251485718</v>
       </c>
       <c r="F44" t="n">
         <v>323213</v>
@@ -1361,16 +1361,16 @@
         <v>44994</v>
       </c>
       <c r="B47" t="n">
-        <v>4149.52587890625</v>
+        <v>4149.525390625</v>
       </c>
       <c r="C47" t="n">
-        <v>4191.797924202077</v>
+        <v>4191.797430946608</v>
       </c>
       <c r="D47" t="n">
-        <v>4138.458041273181</v>
+        <v>4138.457554294301</v>
       </c>
       <c r="E47" t="n">
-        <v>4188.1897472357</v>
+        <v>4188.189254404812</v>
       </c>
       <c r="F47" t="n">
         <v>135724</v>
@@ -1441,16 +1441,16 @@
         <v>45000</v>
       </c>
       <c r="B51" t="n">
-        <v>3851.769287109375</v>
+        <v>3851.76904296875</v>
       </c>
       <c r="C51" t="n">
-        <v>3918.955749826462</v>
+        <v>3918.955501427288</v>
       </c>
       <c r="D51" t="n">
-        <v>3759.131797925732</v>
+        <v>3759.131559656843</v>
       </c>
       <c r="E51" t="n">
-        <v>3861.520601760285</v>
+        <v>3861.520357001582</v>
       </c>
       <c r="F51" t="n">
         <v>471814</v>
@@ -1501,16 +1501,16 @@
         <v>45005</v>
       </c>
       <c r="B54" t="n">
-        <v>3680.780029296875</v>
+        <v>3680.779541015625</v>
       </c>
       <c r="C54" t="n">
-        <v>3793.261543295549</v>
+        <v>3793.261040092837</v>
       </c>
       <c r="D54" t="n">
-        <v>3656.743132996994</v>
+        <v>3656.742647904406</v>
       </c>
       <c r="E54" t="n">
-        <v>3759.180744909859</v>
+        <v>3759.180246228205</v>
       </c>
       <c r="F54" t="n">
         <v>265027</v>
@@ -1521,16 +1521,16 @@
         <v>45006</v>
       </c>
       <c r="B55" t="n">
-        <v>3620.2734375</v>
+        <v>3620.273193359375</v>
       </c>
       <c r="C55" t="n">
-        <v>3705.304859865724</v>
+        <v>3705.304609990829</v>
       </c>
       <c r="D55" t="n">
-        <v>3611.009687903602</v>
+        <v>3611.009444387697</v>
       </c>
       <c r="E55" t="n">
-        <v>3695.748523194542</v>
+        <v>3695.748273964099</v>
       </c>
       <c r="F55" t="n">
         <v>247105</v>
@@ -1541,16 +1541,16 @@
         <v>45007</v>
       </c>
       <c r="B56" t="n">
-        <v>3645.67529296875</v>
+        <v>3645.675048828125</v>
       </c>
       <c r="C56" t="n">
-        <v>3699.746525183979</v>
+        <v>3699.746277422356</v>
       </c>
       <c r="D56" t="n">
-        <v>3621.589592494793</v>
+        <v>3621.58934996712</v>
       </c>
       <c r="E56" t="n">
-        <v>3666.494445754108</v>
+        <v>3666.494200219283</v>
       </c>
       <c r="F56" t="n">
         <v>192165</v>
@@ -1561,16 +1561,16 @@
         <v>45008</v>
       </c>
       <c r="B57" t="n">
-        <v>3655.378173828125</v>
+        <v>3655.3779296875</v>
       </c>
       <c r="C57" t="n">
-        <v>3666.494578119202</v>
+        <v>3666.494333236119</v>
       </c>
       <c r="D57" t="n">
-        <v>3567.031161372351</v>
+        <v>3567.030923132373</v>
       </c>
       <c r="E57" t="n">
-        <v>3625.587857767062</v>
+        <v>3625.587615616115</v>
       </c>
       <c r="F57" t="n">
         <v>238035</v>
@@ -1581,16 +1581,16 @@
         <v>45009</v>
       </c>
       <c r="B58" t="n">
-        <v>3608.47412109375</v>
+        <v>3608.473876953125</v>
       </c>
       <c r="C58" t="n">
-        <v>3732.413430154976</v>
+        <v>3732.413177628917</v>
       </c>
       <c r="D58" t="n">
-        <v>3578.732610299706</v>
+        <v>3578.73236817132</v>
       </c>
       <c r="E58" t="n">
-        <v>3676.245760444112</v>
+        <v>3676.245511718222</v>
       </c>
       <c r="F58" t="n">
         <v>270367</v>
@@ -1601,16 +1601,16 @@
         <v>45012</v>
       </c>
       <c r="B59" t="n">
-        <v>3545.333984375</v>
+        <v>3545.33447265625</v>
       </c>
       <c r="C59" t="n">
-        <v>3630.414198948807</v>
+        <v>3630.414698947733</v>
       </c>
       <c r="D59" t="n">
-        <v>3532.85225485234</v>
+        <v>3532.852741414543</v>
       </c>
       <c r="E59" t="n">
-        <v>3574.831709198584</v>
+        <v>3574.832201542409</v>
       </c>
       <c r="F59" t="n">
         <v>272941</v>
@@ -1621,16 +1621,16 @@
         <v>45013</v>
       </c>
       <c r="B60" t="n">
-        <v>3508.572021484375</v>
+        <v>3508.571533203125</v>
       </c>
       <c r="C60" t="n">
-        <v>3565.763390040544</v>
+        <v>3565.762893800081</v>
       </c>
       <c r="D60" t="n">
-        <v>3490.97084989272</v>
+        <v>3490.970364060991</v>
       </c>
       <c r="E60" t="n">
-        <v>3565.763390040544</v>
+        <v>3565.762893800081</v>
       </c>
       <c r="F60" t="n">
         <v>222037</v>
@@ -1701,16 +1701,16 @@
         <v>45021</v>
       </c>
       <c r="B64" t="n">
-        <v>3977.75634765625</v>
+        <v>3977.756103515625</v>
       </c>
       <c r="C64" t="n">
-        <v>4017.541760274755</v>
+        <v>4017.541513692242</v>
       </c>
       <c r="D64" t="n">
-        <v>3726.075051583478</v>
+        <v>3726.074822890162</v>
       </c>
       <c r="E64" t="n">
-        <v>3755.231388062641</v>
+        <v>3755.231157579812</v>
       </c>
       <c r="F64" t="n">
         <v>846049</v>
@@ -1721,16 +1721,16 @@
         <v>45022</v>
       </c>
       <c r="B65" t="n">
-        <v>3900.623291015625</v>
+        <v>3900.62353515625</v>
       </c>
       <c r="C65" t="n">
-        <v>3973.660539195491</v>
+        <v>3973.66078790753</v>
       </c>
       <c r="D65" t="n">
-        <v>3869.321477184714</v>
+        <v>3869.321719366154</v>
       </c>
       <c r="E65" t="n">
-        <v>3963.909224988877</v>
+        <v>3963.909473090579</v>
       </c>
       <c r="F65" t="n">
         <v>299744</v>
@@ -1741,16 +1741,16 @@
         <v>45026</v>
       </c>
       <c r="B66" t="n">
-        <v>3960.30126953125</v>
+        <v>3960.301513671875</v>
       </c>
       <c r="C66" t="n">
-        <v>3968.784865241145</v>
+        <v>3968.785109904758</v>
       </c>
       <c r="D66" t="n">
-        <v>3891.749483335973</v>
+        <v>3891.749723250588</v>
       </c>
       <c r="E66" t="n">
-        <v>3939.482118560846</v>
+        <v>3939.482361418033</v>
       </c>
       <c r="F66" t="n">
         <v>194314</v>
@@ -1761,16 +1761,16 @@
         <v>45027</v>
       </c>
       <c r="B67" t="n">
-        <v>3905.2548828125</v>
+        <v>3905.25537109375</v>
       </c>
       <c r="C67" t="n">
-        <v>3970.101117596422</v>
+        <v>3970.101613985517</v>
       </c>
       <c r="D67" t="n">
-        <v>3895.649743786008</v>
+        <v>3895.650230866309</v>
       </c>
       <c r="E67" t="n">
-        <v>3960.300999913738</v>
+        <v>3960.301495077506</v>
       </c>
       <c r="F67" t="n">
         <v>191875</v>
@@ -1821,16 +1821,16 @@
         <v>45033</v>
       </c>
       <c r="B70" t="n">
-        <v>3795.114013671875</v>
+        <v>3795.1142578125</v>
       </c>
       <c r="C70" t="n">
-        <v>3812.763988231266</v>
+        <v>3812.764233507318</v>
       </c>
       <c r="D70" t="n">
-        <v>3658.693218374351</v>
+        <v>3658.693453738992</v>
       </c>
       <c r="E70" t="n">
-        <v>3791.311096225873</v>
+        <v>3791.311340121855</v>
       </c>
       <c r="F70" t="n">
         <v>734729</v>
@@ -1861,16 +1861,16 @@
         <v>45035</v>
       </c>
       <c r="B72" t="n">
-        <v>3804.9140625</v>
+        <v>3804.914306640625</v>
       </c>
       <c r="C72" t="n">
-        <v>3928.02440640545</v>
+        <v>3928.024658445396</v>
       </c>
       <c r="D72" t="n">
-        <v>3786.289194897209</v>
+        <v>3786.289437842778</v>
       </c>
       <c r="E72" t="n">
-        <v>3928.02440640545</v>
+        <v>3928.024658445396</v>
       </c>
       <c r="F72" t="n">
         <v>381807</v>
@@ -1921,16 +1921,16 @@
         <v>45040</v>
       </c>
       <c r="B75" t="n">
-        <v>3794.821533203125</v>
+        <v>3794.82177734375</v>
       </c>
       <c r="C75" t="n">
-        <v>3810.764789095008</v>
+        <v>3810.765034261346</v>
       </c>
       <c r="D75" t="n">
-        <v>3685.996771391508</v>
+        <v>3685.997008530869</v>
       </c>
       <c r="E75" t="n">
-        <v>3749.380313756705</v>
+        <v>3749.38055497386</v>
       </c>
       <c r="F75" t="n">
         <v>288023</v>
@@ -1961,16 +1961,16 @@
         <v>45042</v>
       </c>
       <c r="B77" t="n">
-        <v>3845.6259765625</v>
+        <v>3845.625732421875</v>
       </c>
       <c r="C77" t="n">
-        <v>3898.575663629844</v>
+        <v>3898.575416127693</v>
       </c>
       <c r="D77" t="n">
-        <v>3788.580784886075</v>
+        <v>3788.58054436698</v>
       </c>
       <c r="E77" t="n">
-        <v>3835.192117322705</v>
+        <v>3835.191873844477</v>
       </c>
       <c r="F77" t="n">
         <v>415676</v>
@@ -2001,16 +2001,16 @@
         <v>45044</v>
       </c>
       <c r="B79" t="n">
-        <v>4080.43701171875</v>
+        <v>4080.43798828125</v>
       </c>
       <c r="C79" t="n">
-        <v>4115.054173605718</v>
+        <v>4115.055158453071</v>
       </c>
       <c r="D79" t="n">
-        <v>3978.584592879239</v>
+        <v>3978.585545065611</v>
       </c>
       <c r="E79" t="n">
-        <v>3987.311970586204</v>
+        <v>3987.312924861281</v>
       </c>
       <c r="F79" t="n">
         <v>649355</v>
@@ -2021,16 +2021,16 @@
         <v>45048</v>
       </c>
       <c r="B80" t="n">
-        <v>4027.926513671875</v>
+        <v>4027.9267578125</v>
       </c>
       <c r="C80" t="n">
-        <v>4101.744152783906</v>
+        <v>4101.744401398765</v>
       </c>
       <c r="D80" t="n">
-        <v>3988.189908219305</v>
+        <v>3988.190149951416</v>
       </c>
       <c r="E80" t="n">
-        <v>4084.727919012051</v>
+        <v>4084.728166595522</v>
       </c>
       <c r="F80" t="n">
         <v>1158608</v>
@@ -2041,16 +2041,16 @@
         <v>45049</v>
       </c>
       <c r="B81" t="n">
-        <v>3997.307373046875</v>
+        <v>3997.3076171875</v>
       </c>
       <c r="C81" t="n">
-        <v>4038.945674090529</v>
+        <v>4038.945920774266</v>
       </c>
       <c r="D81" t="n">
-        <v>3955.035331823814</v>
+        <v>3955.035573382621</v>
       </c>
       <c r="E81" t="n">
-        <v>3993.163064615955</v>
+        <v>3993.163308503461</v>
       </c>
       <c r="F81" t="n">
         <v>442070</v>
@@ -2061,16 +2061,16 @@
         <v>45050</v>
       </c>
       <c r="B82" t="n">
-        <v>4002.865966796875</v>
+        <v>4002.866455078125</v>
       </c>
       <c r="C82" t="n">
-        <v>4036.361350613459</v>
+        <v>4036.361842980574</v>
       </c>
       <c r="D82" t="n">
-        <v>3983.558078738276</v>
+        <v>3983.558564664294</v>
       </c>
       <c r="E82" t="n">
-        <v>4011.446932952877</v>
+        <v>4011.447422280859</v>
       </c>
       <c r="F82" t="n">
         <v>316363</v>
@@ -2081,16 +2081,16 @@
         <v>45051</v>
       </c>
       <c r="B83" t="n">
-        <v>4015.201171875</v>
+        <v>4015.20166015625</v>
       </c>
       <c r="C83" t="n">
-        <v>4024.172095125611</v>
+        <v>4024.172584497798</v>
       </c>
       <c r="D83" t="n">
-        <v>3961.032574667282</v>
+        <v>3961.033056361188</v>
       </c>
       <c r="E83" t="n">
-        <v>4014.615997803825</v>
+        <v>4014.616486013913</v>
       </c>
       <c r="F83" t="n">
         <v>197974</v>
@@ -2101,16 +2101,16 @@
         <v>45054</v>
       </c>
       <c r="B84" t="n">
-        <v>4013.884765625</v>
+        <v>4013.885009765625</v>
       </c>
       <c r="C84" t="n">
-        <v>4023.684646082373</v>
+        <v>4023.684890819066</v>
       </c>
       <c r="D84" t="n">
-        <v>3998.038879820832</v>
+        <v>3998.039122997647</v>
       </c>
       <c r="E84" t="n">
-        <v>4017.541508502885</v>
+        <v>4017.541752865928</v>
       </c>
       <c r="F84" t="n">
         <v>179821</v>
@@ -2141,16 +2141,16 @@
         <v>45056</v>
       </c>
       <c r="B86" t="n">
-        <v>4041.422607421875</v>
+        <v>4041.421875</v>
       </c>
       <c r="C86" t="n">
-        <v>4065.521941587339</v>
+        <v>4065.521204797972</v>
       </c>
       <c r="D86" t="n">
-        <v>4016.6378095725</v>
+        <v>4016.637081642342</v>
       </c>
       <c r="E86" t="n">
-        <v>4050.827283967144</v>
+        <v>4050.826549840871</v>
       </c>
       <c r="F86" t="n">
         <v>115839</v>
@@ -2201,16 +2201,16 @@
         <v>45061</v>
       </c>
       <c r="B89" t="n">
-        <v>4047.201904296875</v>
+        <v>4047.2021484375</v>
       </c>
       <c r="C89" t="n">
-        <v>4060.329512802626</v>
+        <v>4060.329757735151</v>
       </c>
       <c r="D89" t="n">
-        <v>3977.353498480422</v>
+        <v>3977.35373840756</v>
       </c>
       <c r="E89" t="n">
-        <v>4006.889660935042</v>
+        <v>4006.889902643899</v>
       </c>
       <c r="F89" t="n">
         <v>116466</v>
@@ -2221,16 +2221,16 @@
         <v>45062</v>
       </c>
       <c r="B90" t="n">
-        <v>4118.4228515625</v>
+        <v>4118.42138671875</v>
       </c>
       <c r="C90" t="n">
-        <v>4166.278550536943</v>
+        <v>4166.277068671842</v>
       </c>
       <c r="D90" t="n">
-        <v>4045.929204793797</v>
+        <v>4045.927765734642</v>
       </c>
       <c r="E90" t="n">
-        <v>4065.473291441784</v>
+        <v>4065.471845431173</v>
       </c>
       <c r="F90" t="n">
         <v>497428</v>
@@ -2241,16 +2241,16 @@
         <v>45063</v>
       </c>
       <c r="B91" t="n">
-        <v>4128.21826171875</v>
+        <v>4128.21875</v>
       </c>
       <c r="C91" t="n">
-        <v>4147.859925186912</v>
+        <v>4147.860415791356</v>
       </c>
       <c r="D91" t="n">
-        <v>4046.662929424473</v>
+        <v>4046.663408059444</v>
       </c>
       <c r="E91" t="n">
-        <v>4140.953628923862</v>
+        <v>4140.954118711438</v>
       </c>
       <c r="F91" t="n">
         <v>333219</v>
@@ -2261,16 +2261,16 @@
         <v>45064</v>
       </c>
       <c r="B92" t="n">
-        <v>4120.5283203125</v>
+        <v>4120.52783203125</v>
       </c>
       <c r="C92" t="n">
-        <v>4168.384011506589</v>
+        <v>4168.383517554455</v>
       </c>
       <c r="D92" t="n">
-        <v>4090.50233608596</v>
+        <v>4090.50185136278</v>
       </c>
       <c r="E92" t="n">
-        <v>4153.689355766848</v>
+        <v>4153.688863556026</v>
       </c>
       <c r="F92" t="n">
         <v>204276</v>
@@ -2301,16 +2301,16 @@
         <v>45068</v>
       </c>
       <c r="B94" t="n">
-        <v>4281.9736328125</v>
+        <v>4281.97412109375</v>
       </c>
       <c r="C94" t="n">
-        <v>4295.7374348532</v>
+        <v>4295.737924703962</v>
       </c>
       <c r="D94" t="n">
-        <v>4179.306690580016</v>
+        <v>4179.307167153967</v>
       </c>
       <c r="E94" t="n">
-        <v>4191.062414461028</v>
+        <v>4191.062892375507</v>
       </c>
       <c r="F94" t="n">
         <v>358673</v>
@@ -2321,16 +2321,16 @@
         <v>45069</v>
       </c>
       <c r="B95" t="n">
-        <v>4216.87548828125</v>
+        <v>4216.87646484375</v>
       </c>
       <c r="C95" t="n">
-        <v>4330.024313672465</v>
+        <v>4330.025316438466</v>
       </c>
       <c r="D95" t="n">
-        <v>4202.670657387981</v>
+        <v>4202.671630660864</v>
       </c>
       <c r="E95" t="n">
-        <v>4291.23033501288</v>
+        <v>4291.231328794801</v>
       </c>
       <c r="F95" t="n">
         <v>276091</v>
@@ -2381,16 +2381,16 @@
         <v>45072</v>
       </c>
       <c r="B98" t="n">
-        <v>4369.162109375</v>
+        <v>4369.16259765625</v>
       </c>
       <c r="C98" t="n">
-        <v>4415.401004991207</v>
+        <v>4415.401498439944</v>
       </c>
       <c r="D98" t="n">
-        <v>4217.366126785066</v>
+        <v>4217.366598102163</v>
       </c>
       <c r="E98" t="n">
-        <v>4231.86466220251</v>
+        <v>4231.865135139909</v>
       </c>
       <c r="F98" t="n">
         <v>634129</v>
@@ -2401,16 +2401,16 @@
         <v>45075</v>
       </c>
       <c r="B99" t="n">
-        <v>4330.171875</v>
+        <v>4330.17236328125</v>
       </c>
       <c r="C99" t="n">
-        <v>4418.192954473073</v>
+        <v>4418.193452679806</v>
       </c>
       <c r="D99" t="n">
-        <v>4315.330369058512</v>
+        <v>4315.330855666196</v>
       </c>
       <c r="E99" t="n">
-        <v>4418.192954473073</v>
+        <v>4418.193452679806</v>
       </c>
       <c r="F99" t="n">
         <v>214720</v>
@@ -2461,16 +2461,16 @@
         <v>45078</v>
       </c>
       <c r="B102" t="n">
-        <v>4469.28173828125</v>
+        <v>4469.28125</v>
       </c>
       <c r="C102" t="n">
-        <v>4497.446496723224</v>
+        <v>4497.446005364896</v>
       </c>
       <c r="D102" t="n">
-        <v>4436.36561187725</v>
+        <v>4436.365127192176</v>
       </c>
       <c r="E102" t="n">
-        <v>4473.053462471382</v>
+        <v>4473.052973778061</v>
       </c>
       <c r="F102" t="n">
         <v>220301</v>
@@ -2501,16 +2501,16 @@
         <v>45082</v>
       </c>
       <c r="B104" t="n">
-        <v>4498.96435546875</v>
+        <v>4498.96533203125</v>
       </c>
       <c r="C104" t="n">
-        <v>4539.668354927808</v>
+        <v>4539.669340325675</v>
       </c>
       <c r="D104" t="n">
-        <v>4469.134017086893</v>
+        <v>4469.134987174305</v>
       </c>
       <c r="E104" t="n">
-        <v>4539.668354927808</v>
+        <v>4539.669340325675</v>
       </c>
       <c r="F104" t="n">
         <v>146482</v>
@@ -2521,16 +2521,16 @@
         <v>45083</v>
       </c>
       <c r="B105" t="n">
-        <v>4325.61669921875</v>
+        <v>4325.6171875</v>
       </c>
       <c r="C105" t="n">
-        <v>4469.134499340038</v>
+        <v>4469.135003821764</v>
       </c>
       <c r="D105" t="n">
-        <v>4293.827070244305</v>
+        <v>4293.827554937101</v>
       </c>
       <c r="E105" t="n">
-        <v>4469.134499340038</v>
+        <v>4469.135003821764</v>
       </c>
       <c r="F105" t="n">
         <v>372997</v>
@@ -2541,16 +2541,16 @@
         <v>45084</v>
       </c>
       <c r="B106" t="n">
-        <v>4361.4228515625</v>
+        <v>4361.42236328125</v>
       </c>
       <c r="C106" t="n">
-        <v>4378.958857705462</v>
+        <v>4378.958367460976</v>
       </c>
       <c r="D106" t="n">
-        <v>4326.253735914684</v>
+        <v>4326.253251570777</v>
       </c>
       <c r="E106" t="n">
-        <v>4359.414773172207</v>
+        <v>4359.41428511577</v>
       </c>
       <c r="F106" t="n">
         <v>127994</v>
@@ -2561,16 +2561,16 @@
         <v>45085</v>
       </c>
       <c r="B107" t="n">
-        <v>4296.275390625</v>
+        <v>4296.27587890625</v>
       </c>
       <c r="C107" t="n">
-        <v>4374.108258589834</v>
+        <v>4374.108755716962</v>
       </c>
       <c r="D107" t="n">
-        <v>4286.185253839903</v>
+        <v>4286.185740974387</v>
       </c>
       <c r="E107" t="n">
-        <v>4374.108258589834</v>
+        <v>4374.108755716962</v>
       </c>
       <c r="F107" t="n">
         <v>128873</v>
@@ -2581,16 +2581,16 @@
         <v>45086</v>
       </c>
       <c r="B108" t="n">
-        <v>4318.26953125</v>
+        <v>4318.26904296875</v>
       </c>
       <c r="C108" t="n">
-        <v>4344.132029870461</v>
+        <v>4344.131538664851</v>
       </c>
       <c r="D108" t="n">
-        <v>4248.078154161059</v>
+        <v>4248.077673816584</v>
       </c>
       <c r="E108" t="n">
-        <v>4300.684735084403</v>
+        <v>4300.684248791525</v>
       </c>
       <c r="F108" t="n">
         <v>209549</v>
@@ -2601,16 +2601,16 @@
         <v>45089</v>
       </c>
       <c r="B109" t="n">
-        <v>4414.568359375</v>
+        <v>4414.56884765625</v>
       </c>
       <c r="C109" t="n">
-        <v>4472.073637795699</v>
+        <v>4472.074132437423</v>
       </c>
       <c r="D109" t="n">
-        <v>4290.888338176379</v>
+        <v>4290.888812777778</v>
       </c>
       <c r="E109" t="n">
-        <v>4336.834011893002</v>
+        <v>4336.834491576305</v>
       </c>
       <c r="F109" t="n">
         <v>484807</v>
@@ -2621,16 +2621,16 @@
         <v>45090</v>
       </c>
       <c r="B110" t="n">
-        <v>4474.9140625</v>
+        <v>4474.91455078125</v>
       </c>
       <c r="C110" t="n">
-        <v>4484.808558877074</v>
+        <v>4484.809048237964</v>
       </c>
       <c r="D110" t="n">
-        <v>4408.396355383756</v>
+        <v>4408.396836406911</v>
       </c>
       <c r="E110" t="n">
-        <v>4444.594379016276</v>
+        <v>4444.594863989187</v>
       </c>
       <c r="F110" t="n">
         <v>262813</v>
@@ -2641,16 +2641,16 @@
         <v>45091</v>
       </c>
       <c r="B111" t="n">
-        <v>4525.56201171875</v>
+        <v>4525.5625</v>
       </c>
       <c r="C111" t="n">
-        <v>4556.518847483016</v>
+        <v>4556.519339104324</v>
       </c>
       <c r="D111" t="n">
-        <v>4413.294751018952</v>
+        <v>4413.295227187233</v>
       </c>
       <c r="E111" t="n">
-        <v>4475.012302476043</v>
+        <v>4475.01278530328</v>
       </c>
       <c r="F111" t="n">
         <v>398730</v>
@@ -2661,16 +2661,16 @@
         <v>45092</v>
       </c>
       <c r="B112" t="n">
-        <v>4489.658203125</v>
+        <v>4489.65869140625</v>
       </c>
       <c r="C112" t="n">
-        <v>4544.567040156695</v>
+        <v>4544.567534409659</v>
       </c>
       <c r="D112" t="n">
-        <v>4458.35839615286</v>
+        <v>4458.358881030041</v>
       </c>
       <c r="E112" t="n">
-        <v>4544.567040156695</v>
+        <v>4544.567534409659</v>
       </c>
       <c r="F112" t="n">
         <v>158905</v>
@@ -2701,16 +2701,16 @@
         <v>45096</v>
       </c>
       <c r="B114" t="n">
-        <v>4470.015625</v>
+        <v>4470.01611328125</v>
       </c>
       <c r="C114" t="n">
-        <v>4529.823152958474</v>
+        <v>4529.823647772787</v>
       </c>
       <c r="D114" t="n">
-        <v>4462.570238074569</v>
+        <v>4462.570725542523</v>
       </c>
       <c r="E114" t="n">
-        <v>4489.706556756209</v>
+        <v>4489.707047188394</v>
       </c>
       <c r="F114" t="n">
         <v>136407</v>
@@ -2741,16 +2741,16 @@
         <v>45098</v>
       </c>
       <c r="B116" t="n">
-        <v>4511.11279296875</v>
+        <v>4511.11181640625</v>
       </c>
       <c r="C116" t="n">
-        <v>4583.557164088399</v>
+        <v>4583.556171843194</v>
       </c>
       <c r="D116" t="n">
-        <v>4487.013460114924</v>
+        <v>4487.012488769431</v>
       </c>
       <c r="E116" t="n">
-        <v>4506.361424928476</v>
+        <v>4506.360449394549</v>
       </c>
       <c r="F116" t="n">
         <v>304147</v>
@@ -2781,16 +2781,16 @@
         <v>45100</v>
       </c>
       <c r="B118" t="n">
-        <v>4407.85791015625</v>
+        <v>4407.857421875</v>
       </c>
       <c r="C118" t="n">
-        <v>4439.745120334797</v>
+        <v>4439.744628521236</v>
       </c>
       <c r="D118" t="n">
-        <v>4369.210775969373</v>
+        <v>4369.210291969266</v>
       </c>
       <c r="E118" t="n">
-        <v>4439.745120334797</v>
+        <v>4439.744628521236</v>
       </c>
       <c r="F118" t="n">
         <v>173418</v>
@@ -2801,16 +2801,16 @@
         <v>45103</v>
       </c>
       <c r="B119" t="n">
-        <v>4512.9248046875</v>
+        <v>4512.92529296875</v>
       </c>
       <c r="C119" t="n">
-        <v>4530.558391211544</v>
+        <v>4530.558881400681</v>
       </c>
       <c r="D119" t="n">
-        <v>4354.467436895046</v>
+        <v>4354.467908031813</v>
       </c>
       <c r="E119" t="n">
-        <v>4354.516227743175</v>
+        <v>4354.516698885222</v>
       </c>
       <c r="F119" t="n">
         <v>252705</v>
@@ -2841,16 +2841,16 @@
         <v>45105</v>
       </c>
       <c r="B121" t="n">
-        <v>4573.85888671875</v>
+        <v>4573.8583984375</v>
       </c>
       <c r="C121" t="n">
-        <v>4641.160607771209</v>
+        <v>4641.16011230518</v>
       </c>
       <c r="D121" t="n">
-        <v>4554.364070577135</v>
+        <v>4554.36358437705</v>
       </c>
       <c r="E121" t="n">
-        <v>4628.817000102595</v>
+        <v>4628.816505954304</v>
       </c>
       <c r="F121" t="n">
         <v>265343</v>
@@ -2901,16 +2901,16 @@
         <v>45111</v>
       </c>
       <c r="B124" t="n">
-        <v>4612.75</v>
+        <v>4612.75048828125</v>
       </c>
       <c r="C124" t="n">
-        <v>4652.278715351408</v>
+        <v>4652.279207816959</v>
       </c>
       <c r="D124" t="n">
-        <v>4571.065877368881</v>
+        <v>4571.066361237671</v>
       </c>
       <c r="E124" t="n">
-        <v>4588.993642445728</v>
+        <v>4588.994128212256</v>
       </c>
       <c r="F124" t="n">
         <v>144784</v>
@@ -2921,16 +2921,16 @@
         <v>45112</v>
       </c>
       <c r="B125" t="n">
-        <v>4629.2578125</v>
+        <v>4629.25830078125</v>
       </c>
       <c r="C125" t="n">
-        <v>4671.872316202421</v>
+        <v>4671.87280897853</v>
       </c>
       <c r="D125" t="n">
-        <v>4589.679821790383</v>
+        <v>4589.680305897057</v>
       </c>
       <c r="E125" t="n">
-        <v>4621.959275126936</v>
+        <v>4621.959762638357</v>
       </c>
       <c r="F125" t="n">
         <v>134422</v>
@@ -2961,16 +2961,16 @@
         <v>45114</v>
       </c>
       <c r="B127" t="n">
-        <v>4596.1455078125</v>
+        <v>4596.14501953125</v>
       </c>
       <c r="C127" t="n">
-        <v>4721.001295189717</v>
+        <v>4721.000793644148</v>
       </c>
       <c r="D127" t="n">
-        <v>4582.283644406894</v>
+        <v>4582.283157598289</v>
       </c>
       <c r="E127" t="n">
-        <v>4643.511378832427</v>
+        <v>4643.510885519164</v>
       </c>
       <c r="F127" t="n">
         <v>307428</v>
@@ -2981,16 +2981,16 @@
         <v>45117</v>
       </c>
       <c r="B128" t="n">
-        <v>4517.43115234375</v>
+        <v>4517.4306640625</v>
       </c>
       <c r="C128" t="n">
-        <v>4630.776128548862</v>
+        <v>4630.775628016352</v>
       </c>
       <c r="D128" t="n">
-        <v>4506.361369013067</v>
+        <v>4506.36088192833</v>
       </c>
       <c r="E128" t="n">
-        <v>4630.776128548862</v>
+        <v>4630.775628016352</v>
       </c>
       <c r="F128" t="n">
         <v>139340</v>
@@ -3001,16 +3001,16 @@
         <v>45118</v>
       </c>
       <c r="B129" t="n">
-        <v>4601.33740234375</v>
+        <v>4601.337890625</v>
       </c>
       <c r="C129" t="n">
-        <v>4614.121560553858</v>
+        <v>4614.122050191728</v>
       </c>
       <c r="D129" t="n">
-        <v>4476.971450473701</v>
+        <v>4476.971925557579</v>
       </c>
       <c r="E129" t="n">
-        <v>4520.369472540988</v>
+        <v>4520.369952230144</v>
       </c>
       <c r="F129" t="n">
         <v>324240</v>
@@ -3021,16 +3021,16 @@
         <v>45119</v>
       </c>
       <c r="B130" t="n">
-        <v>4555.14697265625</v>
+        <v>4555.1474609375</v>
       </c>
       <c r="C130" t="n">
-        <v>4623.918150037962</v>
+        <v>4623.918645691021</v>
       </c>
       <c r="D130" t="n">
-        <v>4507.340552611157</v>
+        <v>4507.341035767879</v>
       </c>
       <c r="E130" t="n">
-        <v>4609.223494900129</v>
+        <v>4609.22398897802</v>
       </c>
       <c r="F130" t="n">
         <v>289782</v>
@@ -3061,16 +3061,16 @@
         <v>45121</v>
       </c>
       <c r="B132" t="n">
-        <v>4825.52880859375</v>
+        <v>4825.5283203125</v>
       </c>
       <c r="C132" t="n">
-        <v>4865.302438996982</v>
+        <v>4865.301946691154</v>
       </c>
       <c r="D132" t="n">
-        <v>4681.668512059681</v>
+        <v>4681.668038335237</v>
       </c>
       <c r="E132" t="n">
-        <v>4690.534096322794</v>
+        <v>4690.533621701266</v>
       </c>
       <c r="F132" t="n">
         <v>653920</v>
@@ -3081,16 +3081,16 @@
         <v>45124</v>
       </c>
       <c r="B133" t="n">
-        <v>4857.220703125</v>
+        <v>4857.2197265625</v>
       </c>
       <c r="C133" t="n">
-        <v>4951.952447811879</v>
+        <v>4951.951452203206</v>
       </c>
       <c r="D133" t="n">
-        <v>4810.099741726105</v>
+        <v>4810.098774637452</v>
       </c>
       <c r="E133" t="n">
-        <v>4849.236702001154</v>
+        <v>4849.235727043867</v>
       </c>
       <c r="F133" t="n">
         <v>503091</v>
@@ -3101,16 +3101,16 @@
         <v>45125</v>
       </c>
       <c r="B134" t="n">
-        <v>4864.7646484375</v>
+        <v>4864.76416015625</v>
       </c>
       <c r="C134" t="n">
-        <v>4895.966401627862</v>
+        <v>4895.965910214862</v>
       </c>
       <c r="D134" t="n">
-        <v>4776.008817400407</v>
+        <v>4776.008338027667</v>
       </c>
       <c r="E134" t="n">
-        <v>4888.422952428702</v>
+        <v>4888.422461772845</v>
       </c>
       <c r="F134" t="n">
         <v>452555</v>
@@ -3121,16 +3121,16 @@
         <v>45126</v>
       </c>
       <c r="B135" t="n">
-        <v>4776.6943359375</v>
+        <v>4776.693359375</v>
       </c>
       <c r="C135" t="n">
-        <v>4864.764217114619</v>
+        <v>4864.763222546834</v>
       </c>
       <c r="D135" t="n">
-        <v>4761.06882612824</v>
+        <v>4761.067852760269</v>
       </c>
       <c r="E135" t="n">
-        <v>4863.735304128649</v>
+        <v>4863.734309771218</v>
       </c>
       <c r="F135" t="n">
         <v>382389</v>
@@ -3161,16 +3161,16 @@
         <v>45128</v>
       </c>
       <c r="B137" t="n">
-        <v>4545.84033203125</v>
+        <v>4545.8408203125</v>
       </c>
       <c r="C137" t="n">
-        <v>4816.173194191639</v>
+        <v>4816.173711510087</v>
       </c>
       <c r="D137" t="n">
-        <v>4516.206111004188</v>
+        <v>4516.206596102344</v>
       </c>
       <c r="E137" t="n">
-        <v>4722.813343747166</v>
+        <v>4722.813851037576</v>
       </c>
       <c r="F137" t="n">
         <v>1130735</v>
@@ -3201,16 +3201,16 @@
         <v>45132</v>
       </c>
       <c r="B139" t="n">
-        <v>4592.3251953125</v>
+        <v>4592.32470703125</v>
       </c>
       <c r="C139" t="n">
-        <v>4648.948415268886</v>
+        <v>4648.947920967144</v>
       </c>
       <c r="D139" t="n">
-        <v>4582.920519221783</v>
+        <v>4582.92003194049</v>
       </c>
       <c r="E139" t="n">
-        <v>4642.53193975488</v>
+        <v>4642.531446135373</v>
       </c>
       <c r="F139" t="n">
         <v>175138</v>
@@ -3221,16 +3221,16 @@
         <v>45133</v>
       </c>
       <c r="B140" t="n">
-        <v>4620.146484375</v>
+        <v>4620.14599609375</v>
       </c>
       <c r="C140" t="n">
-        <v>4672.900392652201</v>
+        <v>4672.899898795642</v>
       </c>
       <c r="D140" t="n">
-        <v>4594.577688444989</v>
+        <v>4594.577202865983</v>
       </c>
       <c r="E140" t="n">
-        <v>4603.345690790921</v>
+        <v>4603.345204285267</v>
       </c>
       <c r="F140" t="n">
         <v>160886</v>
@@ -3261,16 +3261,16 @@
         <v>45135</v>
       </c>
       <c r="B142" t="n">
-        <v>4577.189453125</v>
+        <v>4577.18896484375</v>
       </c>
       <c r="C142" t="n">
-        <v>4620.293779550168</v>
+        <v>4620.293286670674</v>
       </c>
       <c r="D142" t="n">
-        <v>4535.799503319015</v>
+        <v>4535.799019453124</v>
       </c>
       <c r="E142" t="n">
-        <v>4604.276986381441</v>
+        <v>4604.276495210572</v>
       </c>
       <c r="F142" t="n">
         <v>114340</v>
@@ -3301,16 +3301,16 @@
         <v>45139</v>
       </c>
       <c r="B144" t="n">
-        <v>4746.814453125</v>
+        <v>4746.81494140625</v>
       </c>
       <c r="C144" t="n">
-        <v>4752.251283974718</v>
+        <v>4752.251772815228</v>
       </c>
       <c r="D144" t="n">
-        <v>4596.046914689241</v>
+        <v>4596.047387461783</v>
       </c>
       <c r="E144" t="n">
-        <v>4630.775472964026</v>
+        <v>4630.775949308922</v>
       </c>
       <c r="F144" t="n">
         <v>352854</v>
@@ -3321,16 +3321,16 @@
         <v>45140</v>
       </c>
       <c r="B145" t="n">
-        <v>4660.26318359375</v>
+        <v>4660.2626953125</v>
       </c>
       <c r="C145" t="n">
-        <v>4759.892661790669</v>
+        <v>4759.892163070694</v>
       </c>
       <c r="D145" t="n">
-        <v>4604.374222992208</v>
+        <v>4604.37374056675</v>
       </c>
       <c r="E145" t="n">
-        <v>4746.373769943591</v>
+        <v>4746.373272640064</v>
       </c>
       <c r="F145" t="n">
         <v>146505</v>
@@ -3401,16 +3401,16 @@
         <v>45146</v>
       </c>
       <c r="B149" t="n">
-        <v>4899.07470703125</v>
+        <v>4899.07421875</v>
       </c>
       <c r="C149" t="n">
-        <v>4936.499917642412</v>
+        <v>4936.499425631064</v>
       </c>
       <c r="D149" t="n">
-        <v>4849.601217150999</v>
+        <v>4849.600733800676</v>
       </c>
       <c r="E149" t="n">
-        <v>4885.354162907258</v>
+        <v>4885.353675993508</v>
       </c>
       <c r="F149" t="n">
         <v>233808</v>
@@ -3421,16 +3421,16 @@
         <v>45147</v>
       </c>
       <c r="B150" t="n">
-        <v>4984.69482421875</v>
+        <v>4984.6943359375</v>
       </c>
       <c r="C150" t="n">
-        <v>5006.382398694615</v>
+        <v>5006.381908288935</v>
       </c>
       <c r="D150" t="n">
-        <v>4877.435989780392</v>
+        <v>4877.435512005799</v>
       </c>
       <c r="E150" t="n">
-        <v>4907.976194140522</v>
+        <v>4907.97571337433</v>
       </c>
       <c r="F150" t="n">
         <v>343864</v>
@@ -3461,16 +3461,16 @@
         <v>45149</v>
       </c>
       <c r="B152" t="n">
-        <v>5181.35888671875</v>
+        <v>5181.35986328125</v>
       </c>
       <c r="C152" t="n">
-        <v>5198.178064113436</v>
+        <v>5198.17904384595</v>
       </c>
       <c r="D152" t="n">
-        <v>5079.165851103459</v>
+        <v>5079.166808405012</v>
       </c>
       <c r="E152" t="n">
-        <v>5088.017999178582</v>
+        <v>5088.018958148552</v>
       </c>
       <c r="F152" t="n">
         <v>604763</v>
@@ -3481,16 +3481,16 @@
         <v>45152</v>
       </c>
       <c r="B153" t="n">
-        <v>5190.359375</v>
+        <v>5190.35888671875</v>
       </c>
       <c r="C153" t="n">
-        <v>5260.144013202808</v>
+        <v>5260.143518356593</v>
       </c>
       <c r="D153" t="n">
-        <v>5135.279332976934</v>
+        <v>5135.27884987732</v>
       </c>
       <c r="E153" t="n">
-        <v>5181.359785614273</v>
+        <v>5181.359298179656</v>
       </c>
       <c r="F153" t="n">
         <v>520002</v>
@@ -3501,16 +3501,16 @@
         <v>45154</v>
       </c>
       <c r="B154" t="n">
-        <v>4992.5634765625</v>
+        <v>4992.56298828125</v>
       </c>
       <c r="C154" t="n">
-        <v>5330.86284496142</v>
+        <v>5330.862323593912</v>
       </c>
       <c r="D154" t="n">
-        <v>4958.384342777705</v>
+        <v>4958.383857839231</v>
       </c>
       <c r="E154" t="n">
-        <v>5116.542559669305</v>
+        <v>5116.542059262688</v>
       </c>
       <c r="F154" t="n">
         <v>698393</v>
@@ -3521,16 +3521,16 @@
         <v>45155</v>
       </c>
       <c r="B155" t="n">
-        <v>4922.9755859375</v>
+        <v>4922.97509765625</v>
       </c>
       <c r="C155" t="n">
-        <v>5042.725496869978</v>
+        <v>5042.724996711432</v>
       </c>
       <c r="D155" t="n">
-        <v>4885.402937179594</v>
+        <v>4885.402452624956</v>
       </c>
       <c r="E155" t="n">
-        <v>5009.431483076207</v>
+        <v>5009.4309862199</v>
       </c>
       <c r="F155" t="n">
         <v>713344</v>
@@ -3541,16 +3541,16 @@
         <v>45156</v>
       </c>
       <c r="B156" t="n">
-        <v>4839.322265625</v>
+        <v>4839.32177734375</v>
       </c>
       <c r="C156" t="n">
-        <v>4946.03984054486</v>
+        <v>4946.039341495947</v>
       </c>
       <c r="D156" t="n">
-        <v>4815.618081503278</v>
+        <v>4815.617595613749</v>
       </c>
       <c r="E156" t="n">
-        <v>4917.860595385268</v>
+        <v>4917.860099179604</v>
       </c>
       <c r="F156" t="n">
         <v>453257</v>
@@ -3561,16 +3561,16 @@
         <v>45159</v>
       </c>
       <c r="B157" t="n">
-        <v>4914.41748046875</v>
+        <v>4914.41796875</v>
       </c>
       <c r="C157" t="n">
-        <v>4938.023208384541</v>
+        <v>4938.023699011183</v>
       </c>
       <c r="D157" t="n">
-        <v>4837.797317994031</v>
+        <v>4837.79779866254</v>
       </c>
       <c r="E157" t="n">
-        <v>4865.681680146512</v>
+        <v>4865.682163585524</v>
       </c>
       <c r="F157" t="n">
         <v>237711</v>
@@ -3601,16 +3601,16 @@
         <v>45161</v>
       </c>
       <c r="B159" t="n">
-        <v>4832.38818359375</v>
+        <v>4832.388671875</v>
       </c>
       <c r="C159" t="n">
-        <v>4916.876930984795</v>
+        <v>4916.877427803081</v>
       </c>
       <c r="D159" t="n">
-        <v>4776.86534640999</v>
+        <v>4776.86582908102</v>
       </c>
       <c r="E159" t="n">
-        <v>4898.18906107307</v>
+        <v>4898.189556003069</v>
       </c>
       <c r="F159" t="n">
         <v>438563</v>
@@ -3621,16 +3621,16 @@
         <v>45162</v>
       </c>
       <c r="B160" t="n">
-        <v>5302.28955078125</v>
+        <v>5302.2900390625</v>
       </c>
       <c r="C160" t="n">
-        <v>5313.256283229478</v>
+        <v>5313.25677252064</v>
       </c>
       <c r="D160" t="n">
-        <v>4625.739411334363</v>
+        <v>4625.739837312953</v>
       </c>
       <c r="E160" t="n">
-        <v>4671.967298285824</v>
+        <v>4671.967728521481</v>
       </c>
       <c r="F160" t="n">
         <v>22136491</v>
@@ -3661,16 +3661,16 @@
         <v>45166</v>
       </c>
       <c r="B162" t="n">
-        <v>5086.93701171875</v>
+        <v>5086.9365234375</v>
       </c>
       <c r="C162" t="n">
-        <v>5217.014436360115</v>
+        <v>5217.013935593088</v>
       </c>
       <c r="D162" t="n">
-        <v>5075.232598483523</v>
+        <v>5075.232111325749</v>
       </c>
       <c r="E162" t="n">
-        <v>5169.852437094081</v>
+        <v>5169.851940854006</v>
       </c>
       <c r="F162" t="n">
         <v>516099</v>
@@ -3681,16 +3681,16 @@
         <v>45167</v>
       </c>
       <c r="B163" t="n">
-        <v>5139.7548828125</v>
+        <v>5139.75439453125</v>
       </c>
       <c r="C163" t="n">
-        <v>5186.72045443448</v>
+        <v>5186.719961691459</v>
       </c>
       <c r="D163" t="n">
-        <v>5004.562694489898</v>
+        <v>5004.562219052024</v>
       </c>
       <c r="E163" t="n">
-        <v>5113.5917667575</v>
+        <v>5113.591280961769</v>
       </c>
       <c r="F163" t="n">
         <v>1018566</v>
@@ -3761,16 +3761,16 @@
         <v>45173</v>
       </c>
       <c r="B167" t="n">
-        <v>5398.8271484375</v>
+        <v>5398.82763671875</v>
       </c>
       <c r="C167" t="n">
-        <v>5413.5807296411</v>
+        <v>5413.581219256695</v>
       </c>
       <c r="D167" t="n">
-        <v>5322.206979438763</v>
+        <v>5322.207460790324</v>
       </c>
       <c r="E167" t="n">
-        <v>5371.287130190779</v>
+        <v>5371.287615981252</v>
       </c>
       <c r="F167" t="n">
         <v>557111</v>
@@ -3781,16 +3781,16 @@
         <v>45174</v>
       </c>
       <c r="B168" t="n">
-        <v>5519.31494140625</v>
+        <v>5519.31591796875</v>
       </c>
       <c r="C168" t="n">
-        <v>5542.428886184482</v>
+        <v>5542.429866836658</v>
       </c>
       <c r="D168" t="n">
-        <v>5391.401579535327</v>
+        <v>5391.402533465419</v>
       </c>
       <c r="E168" t="n">
-        <v>5408.663078106205</v>
+        <v>5408.664035090467</v>
       </c>
       <c r="F168" t="n">
         <v>625240</v>
@@ -3801,16 +3801,16 @@
         <v>45175</v>
       </c>
       <c r="B169" t="n">
-        <v>5533.18359375</v>
+        <v>5533.18310546875</v>
       </c>
       <c r="C169" t="n">
-        <v>5668.031431826712</v>
+        <v>5668.030931645681</v>
       </c>
       <c r="D169" t="n">
-        <v>5484.545758734878</v>
+        <v>5484.545274745722</v>
       </c>
       <c r="E169" t="n">
-        <v>5541.445503773946</v>
+        <v>5541.445014763615</v>
       </c>
       <c r="F169" t="n">
         <v>1124517</v>
@@ -3861,16 +3861,16 @@
         <v>45180</v>
       </c>
       <c r="B172" t="n">
-        <v>5425.0888671875</v>
+        <v>5425.08935546875</v>
       </c>
       <c r="C172" t="n">
-        <v>5496.59427126987</v>
+        <v>5496.594765986913</v>
       </c>
       <c r="D172" t="n">
-        <v>5402.072895656739</v>
+        <v>5402.073381866452</v>
       </c>
       <c r="E172" t="n">
-        <v>5496.200938478707</v>
+        <v>5496.201433160348</v>
       </c>
       <c r="F172" t="n">
         <v>314269</v>
@@ -3881,16 +3881,16 @@
         <v>45181</v>
       </c>
       <c r="B173" t="n">
-        <v>5369.81201171875</v>
+        <v>5369.8125</v>
       </c>
       <c r="C173" t="n">
-        <v>5497.676387856389</v>
+        <v>5497.676887764447</v>
       </c>
       <c r="D173" t="n">
-        <v>5335.386987374001</v>
+        <v>5335.387472524956</v>
       </c>
       <c r="E173" t="n">
-        <v>5477.513159311608</v>
+        <v>5477.513657386207</v>
       </c>
       <c r="F173" t="n">
         <v>245635</v>
@@ -3901,16 +3901,16 @@
         <v>45182</v>
       </c>
       <c r="B174" t="n">
-        <v>5347.82958984375</v>
+        <v>5347.8291015625</v>
       </c>
       <c r="C174" t="n">
-        <v>5389.926768936348</v>
+        <v>5389.926276811433</v>
       </c>
       <c r="D174" t="n">
-        <v>5280.012573558466</v>
+        <v>5280.012091469219</v>
       </c>
       <c r="E174" t="n">
-        <v>5359.485016680762</v>
+        <v>5359.484527335318</v>
       </c>
       <c r="F174" t="n">
         <v>293470</v>
@@ -4001,16 +4001,16 @@
         <v>45190</v>
       </c>
       <c r="B179" t="n">
-        <v>5248.6357421875</v>
+        <v>5248.63525390625</v>
       </c>
       <c r="C179" t="n">
-        <v>5318.125497074988</v>
+        <v>5318.125002329097</v>
       </c>
       <c r="D179" t="n">
-        <v>5203.096544872228</v>
+        <v>5203.096060827495</v>
       </c>
       <c r="E179" t="n">
-        <v>5306.863404131967</v>
+        <v>5306.86291043379</v>
       </c>
       <c r="F179" t="n">
         <v>377880</v>
@@ -4021,16 +4021,16 @@
         <v>45191</v>
       </c>
       <c r="B180" t="n">
-        <v>5206.48974609375</v>
+        <v>5206.490234375</v>
       </c>
       <c r="C180" t="n">
-        <v>5282.175328434337</v>
+        <v>5282.175823813623</v>
       </c>
       <c r="D180" t="n">
-        <v>5165.08126605347</v>
+        <v>5165.081750451301</v>
       </c>
       <c r="E180" t="n">
-        <v>5248.340545407955</v>
+        <v>5248.341037614106</v>
       </c>
       <c r="F180" t="n">
         <v>296925</v>
@@ -4121,16 +4121,16 @@
         <v>45198</v>
       </c>
       <c r="B185" t="n">
-        <v>5020.5947265625</v>
+        <v>5020.59521484375</v>
       </c>
       <c r="C185" t="n">
-        <v>5080.149824266778</v>
+        <v>5080.150318340097</v>
       </c>
       <c r="D185" t="n">
-        <v>4967.039034375068</v>
+        <v>4967.039517447723</v>
       </c>
       <c r="E185" t="n">
-        <v>5060.379929285917</v>
+        <v>5060.380421436503</v>
       </c>
       <c r="F185" t="n">
         <v>567361</v>
@@ -4181,16 +4181,16 @@
         <v>45204</v>
       </c>
       <c r="B188" t="n">
-        <v>5120.181640625</v>
+        <v>5120.18212890625</v>
       </c>
       <c r="C188" t="n">
-        <v>5157.557381648071</v>
+        <v>5157.557873493623</v>
       </c>
       <c r="D188" t="n">
-        <v>5066.380052890489</v>
+        <v>5066.380536041002</v>
       </c>
       <c r="E188" t="n">
-        <v>5070.314341419234</v>
+        <v>5070.314824944936</v>
       </c>
       <c r="F188" t="n">
         <v>312135</v>
@@ -4261,16 +4261,16 @@
         <v>45210</v>
       </c>
       <c r="B192" t="n">
-        <v>5069.97021484375</v>
+        <v>5069.9697265625</v>
       </c>
       <c r="C192" t="n">
-        <v>5196.113346263415</v>
+        <v>5196.112845833509</v>
       </c>
       <c r="D192" t="n">
-        <v>5027.037385465167</v>
+        <v>5027.036901318715</v>
       </c>
       <c r="E192" t="n">
-        <v>5153.81974274649</v>
+        <v>5153.819246389818</v>
       </c>
       <c r="F192" t="n">
         <v>557514</v>
@@ -4281,16 +4281,16 @@
         <v>45211</v>
       </c>
       <c r="B193" t="n">
-        <v>5013.16943359375</v>
+        <v>5013.1689453125</v>
       </c>
       <c r="C193" t="n">
-        <v>5103.756536194882</v>
+        <v>5103.756039090475</v>
       </c>
       <c r="D193" t="n">
-        <v>4984.744290891435</v>
+        <v>4984.743805378786</v>
       </c>
       <c r="E193" t="n">
-        <v>5086.937354236382</v>
+        <v>5086.936858770157</v>
       </c>
       <c r="F193" t="n">
         <v>619118</v>
@@ -4301,16 +4301,16 @@
         <v>45212</v>
       </c>
       <c r="B194" t="n">
-        <v>4924.4013671875</v>
+        <v>4924.40185546875</v>
       </c>
       <c r="C194" t="n">
-        <v>5054.528249690236</v>
+        <v>5054.528750874276</v>
       </c>
       <c r="D194" t="n">
-        <v>4915.647671178343</v>
+        <v>4915.648158591615</v>
       </c>
       <c r="E194" t="n">
-        <v>4974.907892715733</v>
+        <v>4974.90838600498</v>
       </c>
       <c r="F194" t="n">
         <v>437090</v>
@@ -4321,16 +4321,16 @@
         <v>45215</v>
       </c>
       <c r="B195" t="n">
-        <v>4957.3505859375</v>
+        <v>4957.35107421875</v>
       </c>
       <c r="C195" t="n">
-        <v>5005.201270254933</v>
+        <v>5005.201763249303</v>
       </c>
       <c r="D195" t="n">
-        <v>4919.188182392241</v>
+        <v>4919.188666914632</v>
       </c>
       <c r="E195" t="n">
-        <v>4927.695984597122</v>
+        <v>4927.6964699575</v>
       </c>
       <c r="F195" t="n">
         <v>341417</v>
@@ -4341,16 +4341,16 @@
         <v>45216</v>
       </c>
       <c r="B196" t="n">
-        <v>4978.5478515625</v>
+        <v>4978.546875</v>
       </c>
       <c r="C196" t="n">
-        <v>5010.317043143969</v>
+        <v>5010.316060349812</v>
       </c>
       <c r="D196" t="n">
-        <v>4939.844187460323</v>
+        <v>4939.843218489705</v>
       </c>
       <c r="E196" t="n">
-        <v>4994.481433861795</v>
+        <v>4994.480454173858</v>
       </c>
       <c r="F196" t="n">
         <v>215994</v>
@@ -4361,16 +4361,16 @@
         <v>45217</v>
       </c>
       <c r="B197" t="n">
-        <v>5008.4482421875</v>
+        <v>5008.447265625</v>
       </c>
       <c r="C197" t="n">
-        <v>5065.396978181488</v>
+        <v>5065.39599051495</v>
       </c>
       <c r="D197" t="n">
-        <v>4942.45044958485</v>
+        <v>4942.4494858908</v>
       </c>
       <c r="E197" t="n">
-        <v>4992.56364674479</v>
+        <v>4992.562673279517</v>
       </c>
       <c r="F197" t="n">
         <v>626397</v>
@@ -4401,16 +4401,16 @@
         <v>45219</v>
       </c>
       <c r="B199" t="n">
-        <v>4917.95947265625</v>
+        <v>4917.958984375</v>
       </c>
       <c r="C199" t="n">
-        <v>5082.855256584219</v>
+        <v>5082.854751931235</v>
       </c>
       <c r="D199" t="n">
-        <v>4898.189575306354</v>
+        <v>4898.189088987964</v>
       </c>
       <c r="E199" t="n">
-        <v>5038.840400460733</v>
+        <v>5038.83990017778</v>
       </c>
       <c r="F199" t="n">
         <v>473723</v>
@@ -4421,16 +4421,16 @@
         <v>45222</v>
       </c>
       <c r="B200" t="n">
-        <v>4834.65087890625</v>
+        <v>4834.64990234375</v>
       </c>
       <c r="C200" t="n">
-        <v>4937.434177698441</v>
+        <v>4937.4331803745</v>
       </c>
       <c r="D200" t="n">
-        <v>4819.50396250464</v>
+        <v>4819.502989001701</v>
       </c>
       <c r="E200" t="n">
-        <v>4917.959639504926</v>
+        <v>4917.958646114693</v>
       </c>
       <c r="F200" t="n">
         <v>538344</v>
@@ -4441,16 +4441,16 @@
         <v>45224</v>
       </c>
       <c r="B201" t="n">
-        <v>4818.5693359375</v>
+        <v>4818.568359375</v>
       </c>
       <c r="C201" t="n">
-        <v>4895.238983284984</v>
+        <v>4895.237991184116</v>
       </c>
       <c r="D201" t="n">
-        <v>4783.160735696741</v>
+        <v>4783.159766310377</v>
       </c>
       <c r="E201" t="n">
-        <v>4867.698960875505</v>
+        <v>4867.697974356076</v>
       </c>
       <c r="F201" t="n">
         <v>338564</v>
@@ -4501,16 +4501,16 @@
         <v>45229</v>
       </c>
       <c r="B204" t="n">
-        <v>4906.69677734375</v>
+        <v>4906.697265625</v>
       </c>
       <c r="C204" t="n">
-        <v>4943.433290707274</v>
+        <v>4943.433782644293</v>
       </c>
       <c r="D204" t="n">
-        <v>4866.763654709473</v>
+        <v>4866.76413901685</v>
       </c>
       <c r="E204" t="n">
-        <v>4916.679937937367</v>
+        <v>4916.680427212074</v>
       </c>
       <c r="F204" t="n">
         <v>266860</v>
@@ -4561,16 +4561,16 @@
         <v>45232</v>
       </c>
       <c r="B207" t="n">
-        <v>4992.20458984375</v>
+        <v>4992.2041015625</v>
       </c>
       <c r="C207" t="n">
-        <v>5015.505064117093</v>
+        <v>5015.504573556852</v>
       </c>
       <c r="D207" t="n">
-        <v>4958.340250452336</v>
+        <v>4958.339765483314</v>
       </c>
       <c r="E207" t="n">
-        <v>5012.444324846585</v>
+        <v>5012.443834585712</v>
       </c>
       <c r="F207" t="n">
         <v>191341</v>
@@ -4601,16 +4601,16 @@
         <v>45236</v>
       </c>
       <c r="B209" t="n">
-        <v>5050.35595703125</v>
+        <v>5050.3564453125</v>
       </c>
       <c r="C209" t="n">
-        <v>5087.577510654217</v>
+        <v>5087.578002534141</v>
       </c>
       <c r="D209" t="n">
-        <v>5023.600404303953</v>
+        <v>5023.600889998407</v>
       </c>
       <c r="E209" t="n">
-        <v>5065.757995843582</v>
+        <v>5065.75848561394</v>
       </c>
       <c r="F209" t="n">
         <v>263008</v>
@@ -4621,16 +4621,16 @@
         <v>45237</v>
       </c>
       <c r="B210" t="n">
-        <v>5023.00830078125</v>
+        <v>5023.0078125</v>
       </c>
       <c r="C210" t="n">
-        <v>5059.834549890165</v>
+        <v>5059.834058029075</v>
       </c>
       <c r="D210" t="n">
-        <v>5001.336783534985</v>
+        <v>5001.3362973604</v>
       </c>
       <c r="E210" t="n">
-        <v>5059.834549890165</v>
+        <v>5059.834058029075</v>
       </c>
       <c r="F210" t="n">
         <v>64545</v>
@@ -4641,16 +4641,16 @@
         <v>45238</v>
       </c>
       <c r="B211" t="n">
-        <v>5046.80224609375</v>
+        <v>5046.8017578125</v>
       </c>
       <c r="C211" t="n">
-        <v>5074.101106340028</v>
+        <v>5074.100615417597</v>
       </c>
       <c r="D211" t="n">
-        <v>5009.481864191731</v>
+        <v>5009.481379521251</v>
       </c>
       <c r="E211" t="n">
-        <v>5061.858632679862</v>
+        <v>5061.858142941897</v>
       </c>
       <c r="F211" t="n">
         <v>93686</v>
@@ -4661,16 +4661,16 @@
         <v>45239</v>
       </c>
       <c r="B212" t="n">
-        <v>5062.994140625</v>
+        <v>5062.99365234375</v>
       </c>
       <c r="C212" t="n">
-        <v>5098.438260621505</v>
+        <v>5098.437768921981</v>
       </c>
       <c r="D212" t="n">
-        <v>5040.187319998602</v>
+        <v>5040.18683391687</v>
       </c>
       <c r="E212" t="n">
-        <v>5046.111144468728</v>
+        <v>5046.110657815694</v>
       </c>
       <c r="F212" t="n">
         <v>117160</v>
@@ -4761,16 +4761,16 @@
         <v>45247</v>
       </c>
       <c r="B217" t="n">
-        <v>5602.90185546875</v>
+        <v>5602.9013671875</v>
       </c>
       <c r="C217" t="n">
-        <v>5676.850839578401</v>
+        <v>5676.850344852651</v>
       </c>
       <c r="D217" t="n">
-        <v>5533.839737631921</v>
+        <v>5533.839255369291</v>
       </c>
       <c r="E217" t="n">
-        <v>5612.824069301957</v>
+        <v>5612.823580156007</v>
       </c>
       <c r="F217" t="n">
         <v>487295</v>
@@ -4821,16 +4821,16 @@
         <v>45252</v>
       </c>
       <c r="B220" t="n">
-        <v>5562.91552734375</v>
+        <v>5562.916015625</v>
       </c>
       <c r="C220" t="n">
-        <v>5593.176300222968</v>
+        <v>5593.176791160337</v>
       </c>
       <c r="D220" t="n">
-        <v>5512.118540864592</v>
+        <v>5512.11902468717</v>
       </c>
       <c r="E220" t="n">
-        <v>5577.181781693923</v>
+        <v>5577.182271227383</v>
       </c>
       <c r="F220" t="n">
         <v>196944</v>
@@ -4841,16 +4841,16 @@
         <v>45253</v>
       </c>
       <c r="B221" t="n">
-        <v>5548.30322265625</v>
+        <v>5548.302734375</v>
       </c>
       <c r="C221" t="n">
-        <v>5597.915252192503</v>
+        <v>5597.91475954512</v>
       </c>
       <c r="D221" t="n">
-        <v>5519.622232244735</v>
+        <v>5519.62174648757</v>
       </c>
       <c r="E221" t="n">
-        <v>5568.789782116493</v>
+        <v>5568.789292032313</v>
       </c>
       <c r="F221" t="n">
         <v>191077</v>
@@ -4941,16 +4941,16 @@
         <v>45261</v>
       </c>
       <c r="B226" t="n">
-        <v>5641.455078125</v>
+        <v>5641.45556640625</v>
       </c>
       <c r="C226" t="n">
-        <v>5737.075567316417</v>
+        <v>5737.076063873846</v>
       </c>
       <c r="D226" t="n">
-        <v>5622.69630205143</v>
+        <v>5622.696788709064</v>
       </c>
       <c r="E226" t="n">
-        <v>5736.236262496719</v>
+        <v>5736.236758981504</v>
       </c>
       <c r="F226" t="n">
         <v>177578</v>
@@ -4961,16 +4961,16 @@
         <v>45264</v>
       </c>
       <c r="B227" t="n">
-        <v>5603.888671875</v>
+        <v>5603.88818359375</v>
       </c>
       <c r="C227" t="n">
-        <v>5721.427027378572</v>
+        <v>5721.426528855903</v>
       </c>
       <c r="D227" t="n">
-        <v>5583.253631356511</v>
+        <v>5583.253144873245</v>
       </c>
       <c r="E227" t="n">
-        <v>5721.427027378572</v>
+        <v>5721.426528855903</v>
       </c>
       <c r="F227" t="n">
         <v>184861</v>
@@ -4981,16 +4981,16 @@
         <v>45265</v>
       </c>
       <c r="B228" t="n">
-        <v>5534.67822265625</v>
+        <v>5534.6787109375</v>
       </c>
       <c r="C228" t="n">
-        <v>5602.407373446222</v>
+        <v>5602.407867702684</v>
       </c>
       <c r="D228" t="n">
-        <v>5436.09582187832</v>
+        <v>5436.096301462418</v>
       </c>
       <c r="E228" t="n">
-        <v>5584.685073820326</v>
+        <v>5584.685566513289</v>
       </c>
       <c r="F228" t="n">
         <v>322669</v>
@@ -5061,16 +5061,16 @@
         <v>45271</v>
       </c>
       <c r="B232" t="n">
-        <v>5790.2919921875</v>
+        <v>5790.291015625</v>
       </c>
       <c r="C232" t="n">
-        <v>5832.992896516263</v>
+        <v>5832.991912752035</v>
       </c>
       <c r="D232" t="n">
-        <v>5725.031091698682</v>
+        <v>5725.030126142768</v>
       </c>
       <c r="E232" t="n">
-        <v>5734.262481883286</v>
+        <v>5734.261514770451</v>
       </c>
       <c r="F232" t="n">
         <v>484446</v>
@@ -5081,16 +5081,16 @@
         <v>45272</v>
       </c>
       <c r="B233" t="n">
-        <v>5782.2939453125</v>
+        <v>5782.29443359375</v>
       </c>
       <c r="C233" t="n">
-        <v>5883.146953719261</v>
+        <v>5883.147450516964</v>
       </c>
       <c r="D233" t="n">
-        <v>5765.90460229732</v>
+        <v>5765.905089194585</v>
       </c>
       <c r="E233" t="n">
-        <v>5800.411070348635</v>
+        <v>5800.411560159771</v>
       </c>
       <c r="F233" t="n">
         <v>360216</v>
@@ -5121,16 +5121,16 @@
         <v>45274</v>
       </c>
       <c r="B235" t="n">
-        <v>6078.53515625</v>
+        <v>6078.53466796875</v>
       </c>
       <c r="C235" t="n">
-        <v>6127.061054839345</v>
+        <v>6127.06056266007</v>
       </c>
       <c r="D235" t="n">
-        <v>5813.295532368741</v>
+        <v>5813.295065393864</v>
       </c>
       <c r="E235" t="n">
-        <v>5815.220968136689</v>
+        <v>5815.220501007144</v>
       </c>
       <c r="F235" t="n">
         <v>1243260</v>
@@ -5161,16 +5161,16 @@
         <v>45278</v>
       </c>
       <c r="B237" t="n">
-        <v>6359.32421875</v>
+        <v>6359.32470703125</v>
       </c>
       <c r="C237" t="n">
-        <v>6395.854468633769</v>
+        <v>6395.854959719882</v>
       </c>
       <c r="D237" t="n">
-        <v>6250.671118697827</v>
+        <v>6250.671598636482</v>
       </c>
       <c r="E237" t="n">
-        <v>6348.365047368458</v>
+        <v>6348.365534808241</v>
       </c>
       <c r="F237" t="n">
         <v>603544</v>
@@ -5221,16 +5221,16 @@
         <v>45281</v>
       </c>
       <c r="B240" t="n">
-        <v>6050.1005859375</v>
+        <v>6050.10009765625</v>
       </c>
       <c r="C240" t="n">
-        <v>6096.602704602787</v>
+        <v>6096.602212568523</v>
       </c>
       <c r="D240" t="n">
-        <v>5846.863944299631</v>
+        <v>5846.863472420859</v>
       </c>
       <c r="E240" t="n">
-        <v>5884.283154662364</v>
+        <v>5884.282679763626</v>
       </c>
       <c r="F240" t="n">
         <v>366697</v>
@@ -5241,16 +5241,16 @@
         <v>45282</v>
       </c>
       <c r="B241" t="n">
-        <v>6210.34033203125</v>
+        <v>6210.33984375</v>
       </c>
       <c r="C241" t="n">
-        <v>6243.365364338744</v>
+        <v>6243.364873460937</v>
       </c>
       <c r="D241" t="n">
-        <v>6032.477115918771</v>
+        <v>6032.476641621824</v>
       </c>
       <c r="E241" t="n">
-        <v>6052.223197567045</v>
+        <v>6052.222721717582</v>
       </c>
       <c r="F241" t="n">
         <v>477031</v>
@@ -5281,16 +5281,16 @@
         <v>45287</v>
       </c>
       <c r="B243" t="n">
-        <v>6219.4228515625</v>
+        <v>6219.42333984375</v>
       </c>
       <c r="C243" t="n">
-        <v>6313.760039989326</v>
+        <v>6313.760535676904</v>
       </c>
       <c r="D243" t="n">
-        <v>6201.157727179605</v>
+        <v>6201.158214026877</v>
       </c>
       <c r="E243" t="n">
-        <v>6236.799498743176</v>
+        <v>6236.79998838865</v>
       </c>
       <c r="F243" t="n">
         <v>348740</v>
@@ -5301,16 +5301,16 @@
         <v>45288</v>
       </c>
       <c r="B244" t="n">
-        <v>6192.716796875</v>
+        <v>6192.71630859375</v>
       </c>
       <c r="C244" t="n">
-        <v>6244.698259886734</v>
+        <v>6244.697767506867</v>
       </c>
       <c r="D244" t="n">
-        <v>6160.826586077247</v>
+        <v>6160.826100310466</v>
       </c>
       <c r="E244" t="n">
-        <v>6244.698259886734</v>
+        <v>6244.697767506867</v>
       </c>
       <c r="F244" t="n">
         <v>320910</v>
@@ -5321,16 +5321,16 @@
         <v>45289</v>
       </c>
       <c r="B245" t="n">
-        <v>6194.740234375</v>
+        <v>6194.74072265625</v>
       </c>
       <c r="C245" t="n">
-        <v>6239.761394014041</v>
+        <v>6239.761885843945</v>
       </c>
       <c r="D245" t="n">
-        <v>6134.11986408374</v>
+        <v>6134.120347586777</v>
       </c>
       <c r="E245" t="n">
-        <v>6198.294625256353</v>
+        <v>6198.295113817767</v>
       </c>
       <c r="F245" t="n">
         <v>220563</v>

--- a/src/data/raw/COFORGE.NS_data.xlsx
+++ b/src/data/raw/COFORGE.NS_data.xlsx
@@ -461,16 +461,16 @@
         <v>44929</v>
       </c>
       <c r="B2" t="n">
-        <v>3885.75732421875</v>
+        <v>3885.757568359375</v>
       </c>
       <c r="C2" t="n">
-        <v>3897.792872567348</v>
+        <v>3897.793117464162</v>
       </c>
       <c r="D2" t="n">
-        <v>3795.562813967646</v>
+        <v>3795.563052441385</v>
       </c>
       <c r="E2" t="n">
-        <v>3827.222713912235</v>
+        <v>3827.222954375153</v>
       </c>
       <c r="F2" t="n">
         <v>319505</v>
@@ -521,16 +521,16 @@
         <v>44932</v>
       </c>
       <c r="B5" t="n">
-        <v>3771.153564453125</v>
+        <v>3771.1533203125</v>
       </c>
       <c r="C5" t="n">
-        <v>3817.55586414391</v>
+        <v>3817.555616999247</v>
       </c>
       <c r="D5" t="n">
-        <v>3750.900941270112</v>
+        <v>3750.900698440621</v>
       </c>
       <c r="E5" t="n">
-        <v>3808.662137239369</v>
+        <v>3808.661890670478</v>
       </c>
       <c r="F5" t="n">
         <v>163783</v>
@@ -541,16 +541,16 @@
         <v>44935</v>
       </c>
       <c r="B6" t="n">
-        <v>3883.631103515625</v>
+        <v>3883.630859375</v>
       </c>
       <c r="C6" t="n">
-        <v>3905.043738110804</v>
+        <v>3905.043492624095</v>
       </c>
       <c r="D6" t="n">
-        <v>3808.85563266656</v>
+        <v>3808.855393226621</v>
       </c>
       <c r="E6" t="n">
-        <v>3808.85563266656</v>
+        <v>3808.855393226621</v>
       </c>
       <c r="F6" t="n">
         <v>204667</v>
@@ -561,16 +561,16 @@
         <v>44936</v>
       </c>
       <c r="B7" t="n">
-        <v>3842.110107421875</v>
+        <v>3842.110595703125</v>
       </c>
       <c r="C7" t="n">
-        <v>3886.192384094936</v>
+        <v>3886.192877978458</v>
       </c>
       <c r="D7" t="n">
-        <v>3824.902777716666</v>
+        <v>3824.903263811093</v>
       </c>
       <c r="E7" t="n">
-        <v>3866.858093626802</v>
+        <v>3866.858585053193</v>
       </c>
       <c r="F7" t="n">
         <v>187377</v>
@@ -581,16 +581,16 @@
         <v>44937</v>
       </c>
       <c r="B8" t="n">
-        <v>3805.085205078125</v>
+        <v>3805.0849609375</v>
       </c>
       <c r="C8" t="n">
-        <v>3923.894327943727</v>
+        <v>3923.89407618011</v>
       </c>
       <c r="D8" t="n">
-        <v>3781.207167067329</v>
+        <v>3781.206924458759</v>
       </c>
       <c r="E8" t="n">
-        <v>3858.109356124813</v>
+        <v>3858.10910858207</v>
       </c>
       <c r="F8" t="n">
         <v>399848</v>
@@ -641,16 +641,16 @@
         <v>44942</v>
       </c>
       <c r="B11" t="n">
-        <v>3768.736572265625</v>
+        <v>3768.73681640625</v>
       </c>
       <c r="C11" t="n">
-        <v>3818.522370257591</v>
+        <v>3818.522617623365</v>
       </c>
       <c r="D11" t="n">
-        <v>3728.231328110886</v>
+        <v>3728.231569627561</v>
       </c>
       <c r="E11" t="n">
-        <v>3770.186644051799</v>
+        <v>3770.18688828636</v>
       </c>
       <c r="F11" t="n">
         <v>252525</v>
@@ -661,16 +661,16 @@
         <v>44943</v>
       </c>
       <c r="B12" t="n">
-        <v>3787.58740234375</v>
+        <v>3787.587646484375</v>
       </c>
       <c r="C12" t="n">
-        <v>3805.906594874027</v>
+        <v>3805.906840195471</v>
       </c>
       <c r="D12" t="n">
-        <v>3751.045547124407</v>
+        <v>3751.045788909614</v>
       </c>
       <c r="E12" t="n">
-        <v>3768.736469636833</v>
+        <v>3768.736712562362</v>
       </c>
       <c r="F12" t="n">
         <v>139585</v>
@@ -681,16 +681,16 @@
         <v>44944</v>
       </c>
       <c r="B13" t="n">
-        <v>3795.1279296875</v>
+        <v>3795.127685546875</v>
       </c>
       <c r="C13" t="n">
-        <v>3816.588944940997</v>
+        <v>3816.588699419785</v>
       </c>
       <c r="D13" t="n">
-        <v>3780.820507513739</v>
+        <v>3780.820264293511</v>
       </c>
       <c r="E13" t="n">
-        <v>3791.454367289411</v>
+        <v>3791.454123385106</v>
       </c>
       <c r="F13" t="n">
         <v>81445</v>
@@ -701,16 +701,16 @@
         <v>44945</v>
       </c>
       <c r="B14" t="n">
-        <v>3834.521728515625</v>
+        <v>3834.521484375</v>
       </c>
       <c r="C14" t="n">
-        <v>3861.057996284727</v>
+        <v>3861.057750454561</v>
       </c>
       <c r="D14" t="n">
-        <v>3748.919106057128</v>
+        <v>3748.918867366747</v>
       </c>
       <c r="E14" t="n">
-        <v>3770.186826617535</v>
+        <v>3770.186586573057</v>
       </c>
       <c r="F14" t="n">
         <v>198704</v>
@@ -741,16 +741,16 @@
         <v>44949</v>
       </c>
       <c r="B16" t="n">
-        <v>4213.8115234375</v>
+        <v>4213.8125</v>
       </c>
       <c r="C16" t="n">
-        <v>4269.977727411377</v>
+        <v>4269.97871699055</v>
       </c>
       <c r="D16" t="n">
-        <v>3932.787679909431</v>
+        <v>3932.788591343876</v>
       </c>
       <c r="E16" t="n">
-        <v>3988.663822345334</v>
+        <v>3988.66474672923</v>
       </c>
       <c r="F16" t="n">
         <v>1461912</v>
@@ -761,16 +761,16 @@
         <v>44950</v>
       </c>
       <c r="B17" t="n">
-        <v>4180.07373046875</v>
+        <v>4180.07421875</v>
       </c>
       <c r="C17" t="n">
-        <v>4311.546909780441</v>
+        <v>4311.547413419288</v>
       </c>
       <c r="D17" t="n">
-        <v>4158.806010285976</v>
+        <v>4158.80649608291</v>
       </c>
       <c r="E17" t="n">
-        <v>4213.811973989341</v>
+        <v>4213.812466211611</v>
       </c>
       <c r="F17" t="n">
         <v>1169538</v>
@@ -781,16 +781,16 @@
         <v>44951</v>
       </c>
       <c r="B18" t="n">
-        <v>4130.4814453125</v>
+        <v>4130.48193359375</v>
       </c>
       <c r="C18" t="n">
-        <v>4216.80886578923</v>
+        <v>4216.809364275601</v>
       </c>
       <c r="D18" t="n">
-        <v>4108.536836222886</v>
+        <v>4108.537321909973</v>
       </c>
       <c r="E18" t="n">
-        <v>4190.707572947344</v>
+        <v>4190.708068348173</v>
       </c>
       <c r="F18" t="n">
         <v>521283</v>
@@ -801,16 +801,16 @@
         <v>44953</v>
       </c>
       <c r="B19" t="n">
-        <v>4151.169921875</v>
+        <v>4151.1689453125</v>
       </c>
       <c r="C19" t="n">
-        <v>4225.703723855755</v>
+        <v>4225.702729759182</v>
       </c>
       <c r="D19" t="n">
-        <v>4108.537706794058</v>
+        <v>4108.536740260784</v>
       </c>
       <c r="E19" t="n">
-        <v>4161.562105486303</v>
+        <v>4161.561126479042</v>
       </c>
       <c r="F19" t="n">
         <v>744813</v>
@@ -821,16 +821,16 @@
         <v>44956</v>
       </c>
       <c r="B20" t="n">
-        <v>4271.57373046875</v>
+        <v>4271.5732421875</v>
       </c>
       <c r="C20" t="n">
-        <v>4306.182399263099</v>
+        <v>4306.181907025752</v>
       </c>
       <c r="D20" t="n">
-        <v>4124.198360578745</v>
+        <v>4124.197889143893</v>
       </c>
       <c r="E20" t="n">
-        <v>4166.540274791851</v>
+        <v>4166.539798516917</v>
       </c>
       <c r="F20" t="n">
         <v>578458</v>
@@ -841,16 +841,16 @@
         <v>44957</v>
       </c>
       <c r="B21" t="n">
-        <v>4233.14599609375</v>
+        <v>4233.146484375</v>
       </c>
       <c r="C21" t="n">
-        <v>4277.71162859625</v>
+        <v>4277.712122018018</v>
       </c>
       <c r="D21" t="n">
-        <v>4115.497125593335</v>
+        <v>4115.497600304126</v>
       </c>
       <c r="E21" t="n">
-        <v>4277.71162859625</v>
+        <v>4277.712122018018</v>
       </c>
       <c r="F21" t="n">
         <v>345852</v>
@@ -861,16 +861,16 @@
         <v>44958</v>
       </c>
       <c r="B22" t="n">
-        <v>4207.8671875</v>
+        <v>4207.8662109375</v>
       </c>
       <c r="C22" t="n">
-        <v>4282.25606853548</v>
+        <v>4282.255074708796</v>
       </c>
       <c r="D22" t="n">
-        <v>4176.255429673268</v>
+        <v>4176.25446044723</v>
       </c>
       <c r="E22" t="n">
-        <v>4253.544454655103</v>
+        <v>4253.543467491815</v>
       </c>
       <c r="F22" t="n">
         <v>162450</v>
@@ -881,16 +881,16 @@
         <v>44959</v>
       </c>
       <c r="B23" t="n">
-        <v>4305.107421875</v>
+        <v>4305.1083984375</v>
       </c>
       <c r="C23" t="n">
-        <v>4380.938928556365</v>
+        <v>4380.939922320342</v>
       </c>
       <c r="D23" t="n">
-        <v>4225.877580475119</v>
+        <v>4225.878539065269</v>
       </c>
       <c r="E23" t="n">
-        <v>4262.48268979664</v>
+        <v>4262.483656690227</v>
       </c>
       <c r="F23" t="n">
         <v>634419</v>
@@ -921,16 +921,16 @@
         <v>44963</v>
       </c>
       <c r="B25" t="n">
-        <v>4210.421875</v>
+        <v>4210.42236328125</v>
       </c>
       <c r="C25" t="n">
-        <v>4234.946808911325</v>
+        <v>4234.947300036724</v>
       </c>
       <c r="D25" t="n">
-        <v>4154.059474463787</v>
+        <v>4154.059956208708</v>
       </c>
       <c r="E25" t="n">
-        <v>4208.666829057677</v>
+        <v>4208.667317135395</v>
       </c>
       <c r="F25" t="n">
         <v>175369</v>
@@ -961,16 +961,16 @@
         <v>44965</v>
       </c>
       <c r="B27" t="n">
-        <v>4221.78369140625</v>
+        <v>4221.783203125</v>
       </c>
       <c r="C27" t="n">
-        <v>4362.738773574968</v>
+        <v>4362.738268991196</v>
       </c>
       <c r="D27" t="n">
-        <v>4204.767454549678</v>
+        <v>4204.766968236485</v>
       </c>
       <c r="E27" t="n">
-        <v>4236.069274102755</v>
+        <v>4236.06878416927</v>
       </c>
       <c r="F27" t="n">
         <v>740144</v>
@@ -981,16 +981,16 @@
         <v>44966</v>
       </c>
       <c r="B28" t="n">
-        <v>4232.55859375</v>
+        <v>4232.55810546875</v>
       </c>
       <c r="C28" t="n">
-        <v>4251.573659428637</v>
+        <v>4251.57316895375</v>
       </c>
       <c r="D28" t="n">
-        <v>4168.687475701244</v>
+        <v>4168.686994788367</v>
       </c>
       <c r="E28" t="n">
-        <v>4221.34458065747</v>
+        <v>4221.344093669904</v>
       </c>
       <c r="F28" t="n">
         <v>329010</v>
@@ -1001,16 +1001,16 @@
         <v>44967</v>
       </c>
       <c r="B29" t="n">
-        <v>4226.51123046875</v>
+        <v>4226.51220703125</v>
       </c>
       <c r="C29" t="n">
-        <v>4261.32360691189</v>
+        <v>4261.324591518012</v>
       </c>
       <c r="D29" t="n">
-        <v>4193.064418700486</v>
+        <v>4193.065387534886</v>
       </c>
       <c r="E29" t="n">
-        <v>4222.366922613058</v>
+        <v>4222.367898217988</v>
       </c>
       <c r="F29" t="n">
         <v>225248</v>
@@ -1021,16 +1021,16 @@
         <v>44970</v>
       </c>
       <c r="B30" t="n">
-        <v>3931.97412109375</v>
+        <v>3931.9736328125</v>
       </c>
       <c r="C30" t="n">
-        <v>4022.173787830974</v>
+        <v>4022.17328834853</v>
       </c>
       <c r="D30" t="n">
-        <v>3900.818716250791</v>
+        <v>3900.818231838488</v>
       </c>
       <c r="E30" t="n">
-        <v>3949.282705791974</v>
+        <v>3949.282215361306</v>
       </c>
       <c r="F30" t="n">
         <v>8266976</v>
@@ -1061,16 +1061,16 @@
         <v>44972</v>
       </c>
       <c r="B32" t="n">
-        <v>4012.665771484375</v>
+        <v>4012.666015625</v>
       </c>
       <c r="C32" t="n">
-        <v>4022.36851951598</v>
+        <v>4022.368764246944</v>
       </c>
       <c r="D32" t="n">
-        <v>3963.909200749449</v>
+        <v>3963.909441923603</v>
       </c>
       <c r="E32" t="n">
-        <v>3978.536171969927</v>
+        <v>3978.536414034022</v>
       </c>
       <c r="F32" t="n">
         <v>374514</v>
@@ -1081,16 +1081,16 @@
         <v>44973</v>
       </c>
       <c r="B33" t="n">
-        <v>4124.123046875</v>
+        <v>4124.12353515625</v>
       </c>
       <c r="C33" t="n">
-        <v>4137.433971419298</v>
+        <v>4137.434461276514</v>
       </c>
       <c r="D33" t="n">
-        <v>4024.854860634391</v>
+        <v>4024.855337162646</v>
       </c>
       <c r="E33" t="n">
-        <v>4051.573365814076</v>
+        <v>4051.573845505706</v>
       </c>
       <c r="F33" t="n">
         <v>840561</v>
@@ -1121,16 +1121,16 @@
         <v>44977</v>
       </c>
       <c r="B35" t="n">
-        <v>4227.63330078125</v>
+        <v>4227.6337890625</v>
       </c>
       <c r="C35" t="n">
-        <v>4256.302066558455</v>
+        <v>4256.302558150878</v>
       </c>
       <c r="D35" t="n">
-        <v>4071.173288957475</v>
+        <v>4071.173759167979</v>
       </c>
       <c r="E35" t="n">
-        <v>4099.549705792009</v>
+        <v>4099.550179279919</v>
       </c>
       <c r="F35" t="n">
         <v>582774</v>
@@ -1141,16 +1141,16 @@
         <v>44978</v>
       </c>
       <c r="B36" t="n">
-        <v>4232.02197265625</v>
+        <v>4232.021484375</v>
       </c>
       <c r="C36" t="n">
-        <v>4274.001191577434</v>
+        <v>4274.000698452715</v>
       </c>
       <c r="D36" t="n">
-        <v>4188.189623049299</v>
+        <v>4188.189139825328</v>
       </c>
       <c r="E36" t="n">
-        <v>4232.070538773914</v>
+        <v>4232.07005048706</v>
       </c>
       <c r="F36" t="n">
         <v>370734</v>
@@ -1161,16 +1161,16 @@
         <v>44979</v>
       </c>
       <c r="B37" t="n">
-        <v>4234.556640625</v>
+        <v>4234.55712890625</v>
       </c>
       <c r="C37" t="n">
-        <v>4260.349056427686</v>
+        <v>4260.349547683027</v>
       </c>
       <c r="D37" t="n">
-        <v>4172.489622682242</v>
+        <v>4172.490103806625</v>
       </c>
       <c r="E37" t="n">
-        <v>4193.0649903042</v>
+        <v>4193.065473801102</v>
       </c>
       <c r="F37" t="n">
         <v>298410</v>
@@ -1221,16 +1221,16 @@
         <v>44984</v>
       </c>
       <c r="B40" t="n">
-        <v>4167.66357421875</v>
+        <v>4167.6640625</v>
       </c>
       <c r="C40" t="n">
-        <v>4273.026345102564</v>
+        <v>4273.026845728061</v>
       </c>
       <c r="D40" t="n">
-        <v>4052.646620320917</v>
+        <v>4052.647095126842</v>
       </c>
       <c r="E40" t="n">
-        <v>4273.026345102564</v>
+        <v>4273.026845728061</v>
       </c>
       <c r="F40" t="n">
         <v>464622</v>
@@ -1261,16 +1261,16 @@
         <v>44986</v>
       </c>
       <c r="B42" t="n">
-        <v>4193.40625</v>
+        <v>4193.40673828125</v>
       </c>
       <c r="C42" t="n">
-        <v>4201.841041058045</v>
+        <v>4201.841530321443</v>
       </c>
       <c r="D42" t="n">
-        <v>4135.873499611876</v>
+        <v>4135.873981193999</v>
       </c>
       <c r="E42" t="n">
-        <v>4186.824113303053</v>
+        <v>4186.824600817878</v>
       </c>
       <c r="F42" t="n">
         <v>308649</v>
@@ -1281,16 +1281,16 @@
         <v>44987</v>
       </c>
       <c r="B43" t="n">
-        <v>4144.01708984375</v>
+        <v>4144.01611328125</v>
       </c>
       <c r="C43" t="n">
-        <v>4193.163628902983</v>
+        <v>4193.162640758806</v>
       </c>
       <c r="D43" t="n">
-        <v>4120.467280003802</v>
+        <v>4120.466308990955</v>
       </c>
       <c r="E43" t="n">
-        <v>4193.066020512017</v>
+        <v>4193.065032390842</v>
       </c>
       <c r="F43" t="n">
         <v>189586</v>
@@ -1301,16 +1301,16 @@
         <v>44988</v>
       </c>
       <c r="B44" t="n">
-        <v>4152.5</v>
+        <v>4152.49951171875</v>
       </c>
       <c r="C44" t="n">
-        <v>4191.456694965133</v>
+        <v>4191.456202103071</v>
       </c>
       <c r="D44" t="n">
-        <v>4134.557675128076</v>
+        <v>4134.557188956615</v>
       </c>
       <c r="E44" t="n">
-        <v>4183.314251485718</v>
+        <v>4183.313759581104</v>
       </c>
       <c r="F44" t="n">
         <v>323213</v>
@@ -1341,16 +1341,16 @@
         <v>44993</v>
       </c>
       <c r="B46" t="n">
-        <v>4173.17236328125</v>
+        <v>4173.1728515625</v>
       </c>
       <c r="C46" t="n">
-        <v>4212.567575939678</v>
+        <v>4212.568068830358</v>
       </c>
       <c r="D46" t="n">
-        <v>4145.33207660446</v>
+        <v>4145.332561628262</v>
       </c>
       <c r="E46" t="n">
-        <v>4173.562320606904</v>
+        <v>4173.562808933781</v>
       </c>
       <c r="F46" t="n">
         <v>191561</v>
@@ -1361,16 +1361,16 @@
         <v>44994</v>
       </c>
       <c r="B47" t="n">
-        <v>4149.525390625</v>
+        <v>4149.52587890625</v>
       </c>
       <c r="C47" t="n">
-        <v>4191.797430946608</v>
+        <v>4191.797924202077</v>
       </c>
       <c r="D47" t="n">
-        <v>4138.457554294301</v>
+        <v>4138.458041273181</v>
       </c>
       <c r="E47" t="n">
-        <v>4188.189254404812</v>
+        <v>4188.1897472357</v>
       </c>
       <c r="F47" t="n">
         <v>135724</v>
@@ -1381,16 +1381,16 @@
         <v>44995</v>
       </c>
       <c r="B48" t="n">
-        <v>4033.485107421875</v>
+        <v>4033.484619140625</v>
       </c>
       <c r="C48" t="n">
-        <v>4134.411213472402</v>
+        <v>4134.41071297335</v>
       </c>
       <c r="D48" t="n">
-        <v>4015.542783796129</v>
+        <v>4015.542297686922</v>
       </c>
       <c r="E48" t="n">
-        <v>4104.328312721447</v>
+        <v>4104.327815864138</v>
       </c>
       <c r="F48" t="n">
         <v>356622</v>
@@ -1421,16 +1421,16 @@
         <v>44999</v>
       </c>
       <c r="B50" t="n">
-        <v>3824.124267578125</v>
+        <v>3824.12451171875</v>
       </c>
       <c r="C50" t="n">
-        <v>3998.039062002936</v>
+        <v>3998.03931724667</v>
       </c>
       <c r="D50" t="n">
-        <v>3749.770492339656</v>
+        <v>3749.77073173337</v>
       </c>
       <c r="E50" t="n">
-        <v>3998.039062002936</v>
+        <v>3998.03931724667</v>
       </c>
       <c r="F50" t="n">
         <v>882239</v>
@@ -1441,16 +1441,16 @@
         <v>45000</v>
       </c>
       <c r="B51" t="n">
-        <v>3851.76904296875</v>
+        <v>3851.769287109375</v>
       </c>
       <c r="C51" t="n">
-        <v>3918.955501427288</v>
+        <v>3918.955749826462</v>
       </c>
       <c r="D51" t="n">
-        <v>3759.131559656843</v>
+        <v>3759.131797925732</v>
       </c>
       <c r="E51" t="n">
-        <v>3861.520357001582</v>
+        <v>3861.520601760285</v>
       </c>
       <c r="F51" t="n">
         <v>471814</v>
@@ -1461,16 +1461,16 @@
         <v>45001</v>
       </c>
       <c r="B52" t="n">
-        <v>3756.25537109375</v>
+        <v>3756.255126953125</v>
       </c>
       <c r="C52" t="n">
-        <v>3846.503839727067</v>
+        <v>3846.503589720676</v>
       </c>
       <c r="D52" t="n">
-        <v>3740.65326697369</v>
+        <v>3740.653023847135</v>
       </c>
       <c r="E52" t="n">
-        <v>3816.762328748202</v>
+        <v>3816.762080674882</v>
       </c>
       <c r="F52" t="n">
         <v>345380</v>
@@ -1481,16 +1481,16 @@
         <v>45002</v>
       </c>
       <c r="B53" t="n">
-        <v>3803.98779296875</v>
+        <v>3803.987548828125</v>
       </c>
       <c r="C53" t="n">
-        <v>3845.918445390605</v>
+        <v>3845.918198558863</v>
       </c>
       <c r="D53" t="n">
-        <v>3783.510032483658</v>
+        <v>3783.5097896573</v>
       </c>
       <c r="E53" t="n">
-        <v>3803.98779296875</v>
+        <v>3803.987548828125</v>
       </c>
       <c r="F53" t="n">
         <v>251762</v>
@@ -1501,16 +1501,16 @@
         <v>45005</v>
       </c>
       <c r="B54" t="n">
-        <v>3680.779541015625</v>
+        <v>3680.780029296875</v>
       </c>
       <c r="C54" t="n">
-        <v>3793.261040092837</v>
+        <v>3793.261543295549</v>
       </c>
       <c r="D54" t="n">
-        <v>3656.742647904406</v>
+        <v>3656.743132996994</v>
       </c>
       <c r="E54" t="n">
-        <v>3759.180246228205</v>
+        <v>3759.180744909859</v>
       </c>
       <c r="F54" t="n">
         <v>265027</v>
@@ -1541,16 +1541,16 @@
         <v>45007</v>
       </c>
       <c r="B56" t="n">
-        <v>3645.675048828125</v>
+        <v>3645.67529296875</v>
       </c>
       <c r="C56" t="n">
-        <v>3699.746277422356</v>
+        <v>3699.746525183979</v>
       </c>
       <c r="D56" t="n">
-        <v>3621.58934996712</v>
+        <v>3621.589592494793</v>
       </c>
       <c r="E56" t="n">
-        <v>3666.494200219283</v>
+        <v>3666.494445754108</v>
       </c>
       <c r="F56" t="n">
         <v>192165</v>
@@ -1561,16 +1561,16 @@
         <v>45008</v>
       </c>
       <c r="B57" t="n">
-        <v>3655.3779296875</v>
+        <v>3655.378173828125</v>
       </c>
       <c r="C57" t="n">
-        <v>3666.494333236119</v>
+        <v>3666.494578119202</v>
       </c>
       <c r="D57" t="n">
-        <v>3567.030923132373</v>
+        <v>3567.031161372351</v>
       </c>
       <c r="E57" t="n">
-        <v>3625.587615616115</v>
+        <v>3625.587857767062</v>
       </c>
       <c r="F57" t="n">
         <v>238035</v>
@@ -1581,16 +1581,16 @@
         <v>45009</v>
       </c>
       <c r="B58" t="n">
-        <v>3608.473876953125</v>
+        <v>3608.47412109375</v>
       </c>
       <c r="C58" t="n">
-        <v>3732.413177628917</v>
+        <v>3732.413430154976</v>
       </c>
       <c r="D58" t="n">
-        <v>3578.73236817132</v>
+        <v>3578.732610299706</v>
       </c>
       <c r="E58" t="n">
-        <v>3676.245511718222</v>
+        <v>3676.245760444112</v>
       </c>
       <c r="F58" t="n">
         <v>270367</v>
@@ -1601,16 +1601,16 @@
         <v>45012</v>
       </c>
       <c r="B59" t="n">
-        <v>3545.33447265625</v>
+        <v>3545.333984375</v>
       </c>
       <c r="C59" t="n">
-        <v>3630.414698947733</v>
+        <v>3630.414198948807</v>
       </c>
       <c r="D59" t="n">
-        <v>3532.852741414543</v>
+        <v>3532.85225485234</v>
       </c>
       <c r="E59" t="n">
-        <v>3574.832201542409</v>
+        <v>3574.831709198584</v>
       </c>
       <c r="F59" t="n">
         <v>272941</v>
@@ -1621,16 +1621,16 @@
         <v>45013</v>
       </c>
       <c r="B60" t="n">
-        <v>3508.571533203125</v>
+        <v>3508.57177734375</v>
       </c>
       <c r="C60" t="n">
-        <v>3565.762893800081</v>
+        <v>3565.763141920313</v>
       </c>
       <c r="D60" t="n">
-        <v>3490.970364060991</v>
+        <v>3490.970606976856</v>
       </c>
       <c r="E60" t="n">
-        <v>3565.762893800081</v>
+        <v>3565.763141920313</v>
       </c>
       <c r="F60" t="n">
         <v>222037</v>
@@ -1661,16 +1661,16 @@
         <v>45016</v>
       </c>
       <c r="B62" t="n">
-        <v>3719.2490234375</v>
+        <v>3719.249267578125</v>
       </c>
       <c r="C62" t="n">
-        <v>3729.292687092033</v>
+        <v>3729.292931891949</v>
       </c>
       <c r="D62" t="n">
-        <v>3588.532602674941</v>
+        <v>3588.532838235019</v>
       </c>
       <c r="E62" t="n">
-        <v>3602.135639025476</v>
+        <v>3602.135875478491</v>
       </c>
       <c r="F62" t="n">
         <v>276488</v>
@@ -1681,16 +1681,16 @@
         <v>45019</v>
       </c>
       <c r="B63" t="n">
-        <v>3755.572509765625</v>
+        <v>3755.57275390625</v>
       </c>
       <c r="C63" t="n">
-        <v>3782.534798445401</v>
+        <v>3782.535044338779</v>
       </c>
       <c r="D63" t="n">
-        <v>3677.513191562573</v>
+        <v>3677.513430628752</v>
       </c>
       <c r="E63" t="n">
-        <v>3754.255987113894</v>
+        <v>3754.256231168935</v>
       </c>
       <c r="F63" t="n">
         <v>169214</v>
@@ -1721,16 +1721,16 @@
         <v>45022</v>
       </c>
       <c r="B65" t="n">
-        <v>3900.62353515625</v>
+        <v>3900.623291015625</v>
       </c>
       <c r="C65" t="n">
-        <v>3973.66078790753</v>
+        <v>3973.660539195491</v>
       </c>
       <c r="D65" t="n">
-        <v>3869.321719366154</v>
+        <v>3869.321477184714</v>
       </c>
       <c r="E65" t="n">
-        <v>3963.909473090579</v>
+        <v>3963.909224988877</v>
       </c>
       <c r="F65" t="n">
         <v>299744</v>
@@ -1741,16 +1741,16 @@
         <v>45026</v>
       </c>
       <c r="B66" t="n">
-        <v>3960.301513671875</v>
+        <v>3960.30126953125</v>
       </c>
       <c r="C66" t="n">
-        <v>3968.785109904758</v>
+        <v>3968.784865241145</v>
       </c>
       <c r="D66" t="n">
-        <v>3891.749723250588</v>
+        <v>3891.749483335973</v>
       </c>
       <c r="E66" t="n">
-        <v>3939.482361418033</v>
+        <v>3939.482118560846</v>
       </c>
       <c r="F66" t="n">
         <v>194314</v>
@@ -1761,16 +1761,16 @@
         <v>45027</v>
       </c>
       <c r="B67" t="n">
-        <v>3905.25537109375</v>
+        <v>3905.255615234375</v>
       </c>
       <c r="C67" t="n">
-        <v>3970.101613985517</v>
+        <v>3970.101862180064</v>
       </c>
       <c r="D67" t="n">
-        <v>3895.650230866309</v>
+        <v>3895.65047440646</v>
       </c>
       <c r="E67" t="n">
-        <v>3960.301495077506</v>
+        <v>3960.30174265939</v>
       </c>
       <c r="F67" t="n">
         <v>191875</v>
@@ -1781,16 +1781,16 @@
         <v>45028</v>
       </c>
       <c r="B68" t="n">
-        <v>3964.104248046875</v>
+        <v>3964.1044921875</v>
       </c>
       <c r="C68" t="n">
-        <v>3977.561109416524</v>
+        <v>3977.561354385928</v>
       </c>
       <c r="D68" t="n">
-        <v>3895.650069163769</v>
+        <v>3895.650309088449</v>
       </c>
       <c r="E68" t="n">
-        <v>3920.02835495328</v>
+        <v>3920.028596379365</v>
       </c>
       <c r="F68" t="n">
         <v>164378</v>
@@ -1801,16 +1801,16 @@
         <v>45029</v>
       </c>
       <c r="B69" t="n">
-        <v>3928.51171875</v>
+        <v>3928.512451171875</v>
       </c>
       <c r="C69" t="n">
-        <v>4027.292574548277</v>
+        <v>4027.293325386607</v>
       </c>
       <c r="D69" t="n">
-        <v>3892.724444938674</v>
+        <v>3892.725170688459</v>
       </c>
       <c r="E69" t="n">
-        <v>3949.282064629666</v>
+        <v>3949.282800923913</v>
       </c>
       <c r="F69" t="n">
         <v>435682</v>
@@ -1821,16 +1821,16 @@
         <v>45033</v>
       </c>
       <c r="B70" t="n">
-        <v>3795.1142578125</v>
+        <v>3795.114013671875</v>
       </c>
       <c r="C70" t="n">
-        <v>3812.764233507318</v>
+        <v>3812.763988231266</v>
       </c>
       <c r="D70" t="n">
-        <v>3658.693453738992</v>
+        <v>3658.693218374351</v>
       </c>
       <c r="E70" t="n">
-        <v>3791.311340121855</v>
+        <v>3791.311096225873</v>
       </c>
       <c r="F70" t="n">
         <v>734729</v>
@@ -1841,16 +1841,16 @@
         <v>45034</v>
       </c>
       <c r="B71" t="n">
-        <v>3928.0244140625</v>
+        <v>3928.024658203125</v>
       </c>
       <c r="C71" t="n">
-        <v>3958.058509990632</v>
+        <v>3958.058755997982</v>
       </c>
       <c r="D71" t="n">
-        <v>3755.669932258892</v>
+        <v>3755.670165687076</v>
       </c>
       <c r="E71" t="n">
-        <v>3821.832695607504</v>
+        <v>3821.832933147938</v>
       </c>
       <c r="F71" t="n">
         <v>566817</v>
@@ -1861,16 +1861,16 @@
         <v>45035</v>
       </c>
       <c r="B72" t="n">
-        <v>3804.914306640625</v>
+        <v>3804.9140625</v>
       </c>
       <c r="C72" t="n">
-        <v>3928.024658445396</v>
+        <v>3928.02440640545</v>
       </c>
       <c r="D72" t="n">
-        <v>3786.289437842778</v>
+        <v>3786.289194897209</v>
       </c>
       <c r="E72" t="n">
-        <v>3928.024658445396</v>
+        <v>3928.02440640545</v>
       </c>
       <c r="F72" t="n">
         <v>381807</v>
@@ -1881,16 +1881,16 @@
         <v>45036</v>
       </c>
       <c r="B73" t="n">
-        <v>3718.614990234375</v>
+        <v>3718.615234375</v>
       </c>
       <c r="C73" t="n">
-        <v>3903.451204685103</v>
+        <v>3903.451460960899</v>
       </c>
       <c r="D73" t="n">
-        <v>3705.743302674135</v>
+        <v>3705.743545969687</v>
       </c>
       <c r="E73" t="n">
-        <v>3822.515294120811</v>
+        <v>3822.515545082869</v>
       </c>
       <c r="F73" t="n">
         <v>897812</v>
@@ -1901,16 +1901,16 @@
         <v>45037</v>
       </c>
       <c r="B74" t="n">
-        <v>3735.48486328125</v>
+        <v>3735.485107421875</v>
       </c>
       <c r="C74" t="n">
-        <v>3766.152700272302</v>
+        <v>3766.15294641729</v>
       </c>
       <c r="D74" t="n">
-        <v>3676.294430910448</v>
+        <v>3676.294671182555</v>
       </c>
       <c r="E74" t="n">
-        <v>3715.348493736562</v>
+        <v>3715.348736561131</v>
       </c>
       <c r="F74" t="n">
         <v>410881</v>
@@ -1941,16 +1941,16 @@
         <v>45041</v>
       </c>
       <c r="B76" t="n">
-        <v>3832.218017578125</v>
+        <v>3832.2177734375</v>
       </c>
       <c r="C76" t="n">
-        <v>3853.719714917151</v>
+        <v>3853.719469406709</v>
       </c>
       <c r="D76" t="n">
-        <v>3744.504986154317</v>
+        <v>3744.504747601661</v>
       </c>
       <c r="E76" t="n">
-        <v>3803.695421003903</v>
+        <v>3803.695178680378</v>
       </c>
       <c r="F76" t="n">
         <v>387700</v>
@@ -1961,16 +1961,16 @@
         <v>45042</v>
       </c>
       <c r="B77" t="n">
-        <v>3845.625732421875</v>
+        <v>3845.6259765625</v>
       </c>
       <c r="C77" t="n">
-        <v>3898.575416127693</v>
+        <v>3898.575663629844</v>
       </c>
       <c r="D77" t="n">
-        <v>3788.58054436698</v>
+        <v>3788.580784886075</v>
       </c>
       <c r="E77" t="n">
-        <v>3835.191873844477</v>
+        <v>3835.192117322705</v>
       </c>
       <c r="F77" t="n">
         <v>415676</v>
@@ -1981,16 +1981,16 @@
         <v>45043</v>
       </c>
       <c r="B78" t="n">
-        <v>3950.5498046875</v>
+        <v>3950.550048828125</v>
       </c>
       <c r="C78" t="n">
-        <v>3973.075196708478</v>
+        <v>3973.075442241153</v>
       </c>
       <c r="D78" t="n">
-        <v>3828.365795243799</v>
+        <v>3828.366031833556</v>
       </c>
       <c r="E78" t="n">
-        <v>3828.365795243799</v>
+        <v>3828.366031833556</v>
       </c>
       <c r="F78" t="n">
         <v>700170</v>
@@ -2001,16 +2001,16 @@
         <v>45044</v>
       </c>
       <c r="B79" t="n">
-        <v>4080.43798828125</v>
+        <v>4080.437255859375</v>
       </c>
       <c r="C79" t="n">
-        <v>4115.055158453071</v>
+        <v>4115.054419817556</v>
       </c>
       <c r="D79" t="n">
-        <v>3978.585545065611</v>
+        <v>3978.584830925832</v>
       </c>
       <c r="E79" t="n">
-        <v>3987.312924861281</v>
+        <v>3987.312209154973</v>
       </c>
       <c r="F79" t="n">
         <v>649355</v>
@@ -2021,16 +2021,16 @@
         <v>45048</v>
       </c>
       <c r="B80" t="n">
-        <v>4027.9267578125</v>
+        <v>4027.927001953125</v>
       </c>
       <c r="C80" t="n">
-        <v>4101.744401398765</v>
+        <v>4101.744650013624</v>
       </c>
       <c r="D80" t="n">
-        <v>3988.190149951416</v>
+        <v>3988.190391683526</v>
       </c>
       <c r="E80" t="n">
-        <v>4084.728166595522</v>
+        <v>4084.728414178993</v>
       </c>
       <c r="F80" t="n">
         <v>1158608</v>
@@ -2061,16 +2061,16 @@
         <v>45050</v>
       </c>
       <c r="B82" t="n">
-        <v>4002.866455078125</v>
+        <v>4002.865966796875</v>
       </c>
       <c r="C82" t="n">
-        <v>4036.361842980574</v>
+        <v>4036.361350613459</v>
       </c>
       <c r="D82" t="n">
-        <v>3983.558564664294</v>
+        <v>3983.558078738276</v>
       </c>
       <c r="E82" t="n">
-        <v>4011.447422280859</v>
+        <v>4011.446932952877</v>
       </c>
       <c r="F82" t="n">
         <v>316363</v>
@@ -2081,16 +2081,16 @@
         <v>45051</v>
       </c>
       <c r="B83" t="n">
-        <v>4015.20166015625</v>
+        <v>4015.201416015625</v>
       </c>
       <c r="C83" t="n">
-        <v>4024.172584497798</v>
+        <v>4024.172339811705</v>
       </c>
       <c r="D83" t="n">
-        <v>3961.033056361188</v>
+        <v>3961.032815514236</v>
       </c>
       <c r="E83" t="n">
-        <v>4014.616486013913</v>
+        <v>4014.61624190887</v>
       </c>
       <c r="F83" t="n">
         <v>197974</v>
@@ -2121,16 +2121,16 @@
         <v>45055</v>
       </c>
       <c r="B85" t="n">
-        <v>4022.4658203125</v>
+        <v>4022.466064453125</v>
       </c>
       <c r="C85" t="n">
-        <v>4068.248432606519</v>
+        <v>4068.248679525886</v>
       </c>
       <c r="D85" t="n">
-        <v>3989.750350433742</v>
+        <v>3989.750592588726</v>
       </c>
       <c r="E85" t="n">
-        <v>4017.541596917272</v>
+        <v>4017.541840759025</v>
       </c>
       <c r="F85" t="n">
         <v>354599</v>
@@ -2141,16 +2141,16 @@
         <v>45056</v>
       </c>
       <c r="B86" t="n">
-        <v>4041.421875</v>
+        <v>4041.422119140625</v>
       </c>
       <c r="C86" t="n">
-        <v>4065.521204797972</v>
+        <v>4065.521450394428</v>
       </c>
       <c r="D86" t="n">
-        <v>4016.637081642342</v>
+        <v>4016.637324285728</v>
       </c>
       <c r="E86" t="n">
-        <v>4050.826549840871</v>
+        <v>4050.826794549629</v>
       </c>
       <c r="F86" t="n">
         <v>115839</v>
@@ -2161,16 +2161,16 @@
         <v>45057</v>
       </c>
       <c r="B87" t="n">
-        <v>4040.833984375</v>
+        <v>4040.834228515625</v>
       </c>
       <c r="C87" t="n">
-        <v>4093.930862174892</v>
+        <v>4093.931109523545</v>
       </c>
       <c r="D87" t="n">
-        <v>4032.213311488839</v>
+        <v>4032.213555108617</v>
       </c>
       <c r="E87" t="n">
-        <v>4085.114069219742</v>
+        <v>4085.114316035698</v>
       </c>
       <c r="F87" t="n">
         <v>329135</v>
@@ -2181,16 +2181,16 @@
         <v>45058</v>
       </c>
       <c r="B88" t="n">
-        <v>4002.481201171875</v>
+        <v>4002.4814453125</v>
       </c>
       <c r="C88" t="n">
-        <v>4075.758837191991</v>
+        <v>4075.759085802356</v>
       </c>
       <c r="D88" t="n">
-        <v>3991.852210492364</v>
+        <v>3991.852453984649</v>
       </c>
       <c r="E88" t="n">
-        <v>4052.589880933005</v>
+        <v>4052.590128130125</v>
       </c>
       <c r="F88" t="n">
         <v>211783</v>
@@ -2201,16 +2201,16 @@
         <v>45061</v>
       </c>
       <c r="B89" t="n">
-        <v>4047.2021484375</v>
+        <v>4047.201904296875</v>
       </c>
       <c r="C89" t="n">
-        <v>4060.329757735151</v>
+        <v>4060.329512802626</v>
       </c>
       <c r="D89" t="n">
-        <v>3977.35373840756</v>
+        <v>3977.353498480422</v>
       </c>
       <c r="E89" t="n">
-        <v>4006.889902643899</v>
+        <v>4006.889660935042</v>
       </c>
       <c r="F89" t="n">
         <v>116466</v>
@@ -2221,16 +2221,16 @@
         <v>45062</v>
       </c>
       <c r="B90" t="n">
-        <v>4118.42138671875</v>
+        <v>4118.421875</v>
       </c>
       <c r="C90" t="n">
-        <v>4166.277068671842</v>
+        <v>4166.277562626876</v>
       </c>
       <c r="D90" t="n">
-        <v>4045.927765734642</v>
+        <v>4045.928245421027</v>
       </c>
       <c r="E90" t="n">
-        <v>4065.471845431173</v>
+        <v>4065.47232743471</v>
       </c>
       <c r="F90" t="n">
         <v>497428</v>
@@ -2281,16 +2281,16 @@
         <v>45065</v>
       </c>
       <c r="B93" t="n">
-        <v>4191.0625</v>
+        <v>4191.06201171875</v>
       </c>
       <c r="C93" t="n">
-        <v>4215.847772026642</v>
+        <v>4215.847280857774</v>
       </c>
       <c r="D93" t="n">
-        <v>4120.430095238329</v>
+        <v>4120.429615186133</v>
       </c>
       <c r="E93" t="n">
-        <v>4141.933465279546</v>
+        <v>4141.932982722092</v>
       </c>
       <c r="F93" t="n">
         <v>343809</v>
@@ -2301,16 +2301,16 @@
         <v>45068</v>
       </c>
       <c r="B94" t="n">
-        <v>4281.97412109375</v>
+        <v>4281.9736328125</v>
       </c>
       <c r="C94" t="n">
-        <v>4295.737924703962</v>
+        <v>4295.7374348532</v>
       </c>
       <c r="D94" t="n">
-        <v>4179.307167153967</v>
+        <v>4179.306690580016</v>
       </c>
       <c r="E94" t="n">
-        <v>4191.062892375507</v>
+        <v>4191.062414461028</v>
       </c>
       <c r="F94" t="n">
         <v>358673</v>
@@ -2341,16 +2341,16 @@
         <v>45070</v>
       </c>
       <c r="B96" t="n">
-        <v>4168.775390625</v>
+        <v>4168.77587890625</v>
       </c>
       <c r="C96" t="n">
-        <v>4215.89634470633</v>
+        <v>4215.896838506774</v>
       </c>
       <c r="D96" t="n">
-        <v>4146.978319945387</v>
+        <v>4146.978805673585</v>
       </c>
       <c r="E96" t="n">
-        <v>4196.793293998354</v>
+        <v>4196.793785561292</v>
       </c>
       <c r="F96" t="n">
         <v>158567</v>
@@ -2361,16 +2361,16 @@
         <v>45071</v>
       </c>
       <c r="B97" t="n">
-        <v>4209.77392578125</v>
+        <v>4209.7744140625</v>
       </c>
       <c r="C97" t="n">
-        <v>4231.081176438238</v>
+        <v>4231.081667190863</v>
       </c>
       <c r="D97" t="n">
-        <v>4125.867537827924</v>
+        <v>4125.86801637708</v>
       </c>
       <c r="E97" t="n">
-        <v>4163.485760560897</v>
+        <v>4163.486243473297</v>
       </c>
       <c r="F97" t="n">
         <v>280375</v>
@@ -2381,16 +2381,16 @@
         <v>45072</v>
       </c>
       <c r="B98" t="n">
-        <v>4369.16259765625</v>
+        <v>4369.16162109375</v>
       </c>
       <c r="C98" t="n">
-        <v>4415.401498439944</v>
+        <v>4415.400511542471</v>
       </c>
       <c r="D98" t="n">
-        <v>4217.366598102163</v>
+        <v>4217.365655467968</v>
       </c>
       <c r="E98" t="n">
-        <v>4231.865135139909</v>
+        <v>4231.86418926511</v>
       </c>
       <c r="F98" t="n">
         <v>634129</v>
@@ -2421,16 +2421,16 @@
         <v>45076</v>
       </c>
       <c r="B100" t="n">
-        <v>4310.5791015625</v>
+        <v>4310.57958984375</v>
       </c>
       <c r="C100" t="n">
-        <v>4377.831545441662</v>
+        <v>4377.832041340939</v>
       </c>
       <c r="D100" t="n">
-        <v>4298.970228128143</v>
+        <v>4298.970715094397</v>
       </c>
       <c r="E100" t="n">
-        <v>4325.126906076864</v>
+        <v>4325.127396006018</v>
       </c>
       <c r="F100" t="n">
         <v>270720</v>
@@ -2461,16 +2461,16 @@
         <v>45078</v>
       </c>
       <c r="B102" t="n">
-        <v>4469.28125</v>
+        <v>4469.28173828125</v>
       </c>
       <c r="C102" t="n">
-        <v>4497.446005364896</v>
+        <v>4497.446496723224</v>
       </c>
       <c r="D102" t="n">
-        <v>4436.365127192176</v>
+        <v>4436.36561187725</v>
       </c>
       <c r="E102" t="n">
-        <v>4473.052973778061</v>
+        <v>4473.053462471382</v>
       </c>
       <c r="F102" t="n">
         <v>220301</v>
@@ -2501,16 +2501,16 @@
         <v>45082</v>
       </c>
       <c r="B104" t="n">
-        <v>4498.96533203125</v>
+        <v>4498.9658203125</v>
       </c>
       <c r="C104" t="n">
-        <v>4539.669340325675</v>
+        <v>4539.669833024608</v>
       </c>
       <c r="D104" t="n">
-        <v>4469.134987174305</v>
+        <v>4469.13547221801</v>
       </c>
       <c r="E104" t="n">
-        <v>4539.669340325675</v>
+        <v>4539.669833024608</v>
       </c>
       <c r="F104" t="n">
         <v>146482</v>
@@ -2521,16 +2521,16 @@
         <v>45083</v>
       </c>
       <c r="B105" t="n">
-        <v>4325.6171875</v>
+        <v>4325.61669921875</v>
       </c>
       <c r="C105" t="n">
-        <v>4469.135003821764</v>
+        <v>4469.134499340038</v>
       </c>
       <c r="D105" t="n">
-        <v>4293.827554937101</v>
+        <v>4293.827070244305</v>
       </c>
       <c r="E105" t="n">
-        <v>4469.135003821764</v>
+        <v>4469.134499340038</v>
       </c>
       <c r="F105" t="n">
         <v>372997</v>
@@ -2541,16 +2541,16 @@
         <v>45084</v>
       </c>
       <c r="B106" t="n">
-        <v>4361.42236328125</v>
+        <v>4361.42333984375</v>
       </c>
       <c r="C106" t="n">
-        <v>4378.958367460976</v>
+        <v>4378.959347949947</v>
       </c>
       <c r="D106" t="n">
-        <v>4326.253251570777</v>
+        <v>4326.25422025859</v>
       </c>
       <c r="E106" t="n">
-        <v>4359.41428511577</v>
+        <v>4359.415261228643</v>
       </c>
       <c r="F106" t="n">
         <v>127994</v>
@@ -2561,16 +2561,16 @@
         <v>45085</v>
       </c>
       <c r="B107" t="n">
-        <v>4296.27587890625</v>
+        <v>4296.2763671875</v>
       </c>
       <c r="C107" t="n">
-        <v>4374.108755716962</v>
+        <v>4374.10925284409</v>
       </c>
       <c r="D107" t="n">
-        <v>4286.185740974387</v>
+        <v>4286.186228108871</v>
       </c>
       <c r="E107" t="n">
-        <v>4374.108755716962</v>
+        <v>4374.10925284409</v>
       </c>
       <c r="F107" t="n">
         <v>128873</v>
@@ -2581,16 +2581,16 @@
         <v>45086</v>
       </c>
       <c r="B108" t="n">
-        <v>4318.26904296875</v>
+        <v>4318.27001953125</v>
       </c>
       <c r="C108" t="n">
-        <v>4344.131538664851</v>
+        <v>4344.132521076071</v>
       </c>
       <c r="D108" t="n">
-        <v>4248.077673816584</v>
+        <v>4248.078634505534</v>
       </c>
       <c r="E108" t="n">
-        <v>4300.684248791525</v>
+        <v>4300.68522137728</v>
       </c>
       <c r="F108" t="n">
         <v>209549</v>
@@ -2601,16 +2601,16 @@
         <v>45089</v>
       </c>
       <c r="B109" t="n">
-        <v>4414.56884765625</v>
+        <v>4414.568359375</v>
       </c>
       <c r="C109" t="n">
-        <v>4472.074132437423</v>
+        <v>4472.073637795699</v>
       </c>
       <c r="D109" t="n">
-        <v>4290.888812777778</v>
+        <v>4290.888338176379</v>
       </c>
       <c r="E109" t="n">
-        <v>4336.834491576305</v>
+        <v>4336.834011893002</v>
       </c>
       <c r="F109" t="n">
         <v>484807</v>
@@ -2721,16 +2721,16 @@
         <v>45097</v>
       </c>
       <c r="B115" t="n">
-        <v>4466.4404296875</v>
+        <v>4466.44091796875</v>
       </c>
       <c r="C115" t="n">
-        <v>4486.768035963974</v>
+        <v>4486.768526467484</v>
       </c>
       <c r="D115" t="n">
-        <v>4302.83993579973</v>
+        <v>4302.840406195809</v>
       </c>
       <c r="E115" t="n">
-        <v>4457.378725684734</v>
+        <v>4457.379212975338</v>
       </c>
       <c r="F115" t="n">
         <v>257086</v>
@@ -2741,16 +2741,16 @@
         <v>45098</v>
       </c>
       <c r="B116" t="n">
-        <v>4511.11181640625</v>
+        <v>4511.1123046875</v>
       </c>
       <c r="C116" t="n">
-        <v>4583.556171843194</v>
+        <v>4583.556667965796</v>
       </c>
       <c r="D116" t="n">
-        <v>4487.012488769431</v>
+        <v>4487.012974442177</v>
       </c>
       <c r="E116" t="n">
-        <v>4506.360449394549</v>
+        <v>4506.360937161512</v>
       </c>
       <c r="F116" t="n">
         <v>304147</v>
@@ -2781,16 +2781,16 @@
         <v>45100</v>
       </c>
       <c r="B118" t="n">
-        <v>4407.857421875</v>
+        <v>4407.85791015625</v>
       </c>
       <c r="C118" t="n">
-        <v>4439.744628521236</v>
+        <v>4439.745120334797</v>
       </c>
       <c r="D118" t="n">
-        <v>4369.210291969266</v>
+        <v>4369.210775969373</v>
       </c>
       <c r="E118" t="n">
-        <v>4439.744628521236</v>
+        <v>4439.745120334797</v>
       </c>
       <c r="F118" t="n">
         <v>173418</v>
@@ -2821,16 +2821,16 @@
         <v>45104</v>
       </c>
       <c r="B120" t="n">
-        <v>4599.8681640625</v>
+        <v>4599.86767578125</v>
       </c>
       <c r="C120" t="n">
-        <v>4618.432125017378</v>
+        <v>4618.431634765543</v>
       </c>
       <c r="D120" t="n">
-        <v>4522.035281411257</v>
+        <v>4522.034801392056</v>
       </c>
       <c r="E120" t="n">
-        <v>4522.035281411257</v>
+        <v>4522.034801392056</v>
       </c>
       <c r="F120" t="n">
         <v>353159</v>
@@ -2841,16 +2841,16 @@
         <v>45105</v>
       </c>
       <c r="B121" t="n">
-        <v>4573.8583984375</v>
+        <v>4573.85791015625</v>
       </c>
       <c r="C121" t="n">
-        <v>4641.16011230518</v>
+        <v>4641.15961683915</v>
       </c>
       <c r="D121" t="n">
-        <v>4554.36358437705</v>
+        <v>4554.363098176964</v>
       </c>
       <c r="E121" t="n">
-        <v>4628.816505954304</v>
+        <v>4628.816011806013</v>
       </c>
       <c r="F121" t="n">
         <v>265343</v>
@@ -2921,16 +2921,16 @@
         <v>45112</v>
       </c>
       <c r="B125" t="n">
-        <v>4629.25830078125</v>
+        <v>4629.2578125</v>
       </c>
       <c r="C125" t="n">
-        <v>4671.87280897853</v>
+        <v>4671.872316202421</v>
       </c>
       <c r="D125" t="n">
-        <v>4589.680305897057</v>
+        <v>4589.679821790383</v>
       </c>
       <c r="E125" t="n">
-        <v>4621.959762638357</v>
+        <v>4621.959275126936</v>
       </c>
       <c r="F125" t="n">
         <v>134422</v>
@@ -3041,16 +3041,16 @@
         <v>45120</v>
       </c>
       <c r="B131" t="n">
-        <v>4658.69580078125</v>
+        <v>4658.6953125</v>
       </c>
       <c r="C131" t="n">
-        <v>4718.160367074793</v>
+        <v>4718.159872561019</v>
       </c>
       <c r="D131" t="n">
-        <v>4561.466159686193</v>
+        <v>4561.465681595652</v>
       </c>
       <c r="E131" t="n">
-        <v>4578.85483605332</v>
+        <v>4578.854356140258</v>
       </c>
       <c r="F131" t="n">
         <v>438079</v>
@@ -3061,16 +3061,16 @@
         <v>45121</v>
       </c>
       <c r="B132" t="n">
-        <v>4825.5283203125</v>
+        <v>4825.529296875</v>
       </c>
       <c r="C132" t="n">
-        <v>4865.301946691154</v>
+        <v>4865.30293130281</v>
       </c>
       <c r="D132" t="n">
-        <v>4681.668038335237</v>
+        <v>4681.668985784126</v>
       </c>
       <c r="E132" t="n">
-        <v>4690.533621701266</v>
+        <v>4690.53457094432</v>
       </c>
       <c r="F132" t="n">
         <v>653920</v>
@@ -3101,16 +3101,16 @@
         <v>45125</v>
       </c>
       <c r="B134" t="n">
-        <v>4864.76416015625</v>
+        <v>4864.7646484375</v>
       </c>
       <c r="C134" t="n">
-        <v>4895.965910214862</v>
+        <v>4895.966401627862</v>
       </c>
       <c r="D134" t="n">
-        <v>4776.008338027667</v>
+        <v>4776.008817400407</v>
       </c>
       <c r="E134" t="n">
-        <v>4888.422461772845</v>
+        <v>4888.422952428702</v>
       </c>
       <c r="F134" t="n">
         <v>452555</v>
@@ -3121,16 +3121,16 @@
         <v>45126</v>
       </c>
       <c r="B135" t="n">
-        <v>4776.693359375</v>
+        <v>4776.69384765625</v>
       </c>
       <c r="C135" t="n">
-        <v>4864.763222546834</v>
+        <v>4864.763719830727</v>
       </c>
       <c r="D135" t="n">
-        <v>4761.067852760269</v>
+        <v>4761.068339444255</v>
       </c>
       <c r="E135" t="n">
-        <v>4863.734309771218</v>
+        <v>4863.734806949934</v>
       </c>
       <c r="F135" t="n">
         <v>382389</v>
@@ -3161,16 +3161,16 @@
         <v>45128</v>
       </c>
       <c r="B137" t="n">
-        <v>4545.8408203125</v>
+        <v>4545.84033203125</v>
       </c>
       <c r="C137" t="n">
-        <v>4816.173711510087</v>
+        <v>4816.173194191639</v>
       </c>
       <c r="D137" t="n">
-        <v>4516.206596102344</v>
+        <v>4516.206111004188</v>
       </c>
       <c r="E137" t="n">
-        <v>4722.813851037576</v>
+        <v>4722.813343747166</v>
       </c>
       <c r="F137" t="n">
         <v>1130735</v>
@@ -3181,16 +3181,16 @@
         <v>45131</v>
       </c>
       <c r="B138" t="n">
-        <v>4629.5029296875</v>
+        <v>4629.50244140625</v>
       </c>
       <c r="C138" t="n">
-        <v>4651.348795245083</v>
+        <v>4651.348304659714</v>
       </c>
       <c r="D138" t="n">
-        <v>4548.094433664302</v>
+        <v>4548.093953969339</v>
       </c>
       <c r="E138" t="n">
-        <v>4572.97729069167</v>
+        <v>4572.976808372271</v>
       </c>
       <c r="F138" t="n">
         <v>338000</v>
@@ -3221,16 +3221,16 @@
         <v>45133</v>
       </c>
       <c r="B140" t="n">
-        <v>4620.14599609375</v>
+        <v>4620.146484375</v>
       </c>
       <c r="C140" t="n">
-        <v>4672.899898795642</v>
+        <v>4672.900392652201</v>
       </c>
       <c r="D140" t="n">
-        <v>4594.577202865983</v>
+        <v>4594.577688444989</v>
       </c>
       <c r="E140" t="n">
-        <v>4603.345204285267</v>
+        <v>4603.345690790921</v>
       </c>
       <c r="F140" t="n">
         <v>160886</v>
@@ -3361,16 +3361,16 @@
         <v>45142</v>
       </c>
       <c r="B147" t="n">
-        <v>4807.84814453125</v>
+        <v>4807.8486328125</v>
       </c>
       <c r="C147" t="n">
-        <v>4813.307258160031</v>
+        <v>4813.307746995704</v>
       </c>
       <c r="D147" t="n">
-        <v>4709.982714882399</v>
+        <v>4709.983193224513</v>
       </c>
       <c r="E147" t="n">
-        <v>4721.146354919438</v>
+        <v>4721.146834395323</v>
       </c>
       <c r="F147" t="n">
         <v>246235</v>
@@ -3381,16 +3381,16 @@
         <v>45145</v>
       </c>
       <c r="B148" t="n">
-        <v>4861.453125</v>
+        <v>4861.45263671875</v>
       </c>
       <c r="C148" t="n">
-        <v>4876.5510545913</v>
+        <v>4876.550564793623</v>
       </c>
       <c r="D148" t="n">
-        <v>4804.996175764854</v>
+        <v>4804.995693154105</v>
       </c>
       <c r="E148" t="n">
-        <v>4833.273877019292</v>
+        <v>4833.273391568348</v>
       </c>
       <c r="F148" t="n">
         <v>183698</v>
@@ -3401,16 +3401,16 @@
         <v>45146</v>
       </c>
       <c r="B149" t="n">
-        <v>4899.07421875</v>
+        <v>4899.07373046875</v>
       </c>
       <c r="C149" t="n">
-        <v>4936.499425631064</v>
+        <v>4936.498933619716</v>
       </c>
       <c r="D149" t="n">
-        <v>4849.600733800676</v>
+        <v>4849.600250450352</v>
       </c>
       <c r="E149" t="n">
-        <v>4885.353675993508</v>
+        <v>4885.353189079759</v>
       </c>
       <c r="F149" t="n">
         <v>233808</v>
@@ -3441,16 +3441,16 @@
         <v>45148</v>
       </c>
       <c r="B151" t="n">
-        <v>5062.34716796875</v>
+        <v>5062.34765625</v>
       </c>
       <c r="C151" t="n">
-        <v>5139.164245372599</v>
+        <v>5139.164741063127</v>
       </c>
       <c r="D151" t="n">
-        <v>4959.613349822407</v>
+        <v>4959.613828194618</v>
       </c>
       <c r="E151" t="n">
-        <v>4984.694438484034</v>
+        <v>4984.694919275404</v>
       </c>
       <c r="F151" t="n">
         <v>625096</v>
@@ -3461,16 +3461,16 @@
         <v>45149</v>
       </c>
       <c r="B152" t="n">
-        <v>5181.35986328125</v>
+        <v>5181.359375</v>
       </c>
       <c r="C152" t="n">
-        <v>5198.17904384595</v>
+        <v>5198.178553979693</v>
       </c>
       <c r="D152" t="n">
-        <v>5079.166808405012</v>
+        <v>5079.166329754235</v>
       </c>
       <c r="E152" t="n">
-        <v>5088.018958148552</v>
+        <v>5088.018478663567</v>
       </c>
       <c r="F152" t="n">
         <v>604763</v>
@@ -3481,16 +3481,16 @@
         <v>45152</v>
       </c>
       <c r="B153" t="n">
-        <v>5190.35888671875</v>
+        <v>5190.359375</v>
       </c>
       <c r="C153" t="n">
-        <v>5260.143518356593</v>
+        <v>5260.144013202808</v>
       </c>
       <c r="D153" t="n">
-        <v>5135.27884987732</v>
+        <v>5135.279332976934</v>
       </c>
       <c r="E153" t="n">
-        <v>5181.359298179656</v>
+        <v>5181.359785614273</v>
       </c>
       <c r="F153" t="n">
         <v>520002</v>
@@ -3521,16 +3521,16 @@
         <v>45155</v>
       </c>
       <c r="B155" t="n">
-        <v>4922.97509765625</v>
+        <v>4922.9755859375</v>
       </c>
       <c r="C155" t="n">
-        <v>5042.724996711432</v>
+        <v>5042.725496869978</v>
       </c>
       <c r="D155" t="n">
-        <v>4885.402452624956</v>
+        <v>4885.402937179594</v>
       </c>
       <c r="E155" t="n">
-        <v>5009.4309862199</v>
+        <v>5009.431483076207</v>
       </c>
       <c r="F155" t="n">
         <v>713344</v>
@@ -3541,16 +3541,16 @@
         <v>45156</v>
       </c>
       <c r="B156" t="n">
-        <v>4839.32177734375</v>
+        <v>4839.322265625</v>
       </c>
       <c r="C156" t="n">
-        <v>4946.039341495947</v>
+        <v>4946.03984054486</v>
       </c>
       <c r="D156" t="n">
-        <v>4815.617595613749</v>
+        <v>4815.618081503278</v>
       </c>
       <c r="E156" t="n">
-        <v>4917.860099179604</v>
+        <v>4917.860595385268</v>
       </c>
       <c r="F156" t="n">
         <v>453257</v>
@@ -3581,16 +3581,16 @@
         <v>45160</v>
       </c>
       <c r="B158" t="n">
-        <v>4879.50146484375</v>
+        <v>4879.5009765625</v>
       </c>
       <c r="C158" t="n">
-        <v>4960.449261160826</v>
+        <v>4960.448764779303</v>
       </c>
       <c r="D158" t="n">
-        <v>4870.649315441695</v>
+        <v>4870.648828046261</v>
       </c>
       <c r="E158" t="n">
-        <v>4957.203665150675</v>
+        <v>4957.203169093933</v>
       </c>
       <c r="F158" t="n">
         <v>171782</v>
@@ -3741,16 +3741,16 @@
         <v>45170</v>
       </c>
       <c r="B166" t="n">
-        <v>5362.33642578125</v>
+        <v>5362.33740234375</v>
       </c>
       <c r="C166" t="n">
-        <v>5415.941103130414</v>
+        <v>5415.942089455137</v>
       </c>
       <c r="D166" t="n">
-        <v>5338.189923776508</v>
+        <v>5338.190895941565</v>
       </c>
       <c r="E166" t="n">
-        <v>5365.336608724558</v>
+        <v>5365.337585833437</v>
       </c>
       <c r="F166" t="n">
         <v>364138</v>
@@ -3761,16 +3761,16 @@
         <v>45173</v>
       </c>
       <c r="B167" t="n">
-        <v>5398.82763671875</v>
+        <v>5398.828125</v>
       </c>
       <c r="C167" t="n">
-        <v>5413.581219256695</v>
+        <v>5413.581708872291</v>
       </c>
       <c r="D167" t="n">
-        <v>5322.207460790324</v>
+        <v>5322.207942141886</v>
       </c>
       <c r="E167" t="n">
-        <v>5371.287615981252</v>
+        <v>5371.288101771725</v>
       </c>
       <c r="F167" t="n">
         <v>557111</v>
@@ -3781,16 +3781,16 @@
         <v>45174</v>
       </c>
       <c r="B168" t="n">
-        <v>5519.31591796875</v>
+        <v>5519.31494140625</v>
       </c>
       <c r="C168" t="n">
-        <v>5542.429866836658</v>
+        <v>5542.428886184482</v>
       </c>
       <c r="D168" t="n">
-        <v>5391.402533465419</v>
+        <v>5391.401579535327</v>
       </c>
       <c r="E168" t="n">
-        <v>5408.664035090467</v>
+        <v>5408.663078106205</v>
       </c>
       <c r="F168" t="n">
         <v>625240</v>
@@ -3821,16 +3821,16 @@
         <v>45176</v>
       </c>
       <c r="B170" t="n">
-        <v>5518.1845703125</v>
+        <v>5518.18408203125</v>
       </c>
       <c r="C170" t="n">
-        <v>5556.199541044267</v>
+        <v>5556.19904939923</v>
       </c>
       <c r="D170" t="n">
-        <v>5433.892237888582</v>
+        <v>5433.891757066011</v>
       </c>
       <c r="E170" t="n">
-        <v>5508.004501654787</v>
+        <v>5508.004014274329</v>
       </c>
       <c r="F170" t="n">
         <v>394065</v>
@@ -3861,16 +3861,16 @@
         <v>45180</v>
       </c>
       <c r="B172" t="n">
-        <v>5425.08935546875</v>
+        <v>5425.0888671875</v>
       </c>
       <c r="C172" t="n">
-        <v>5496.594765986913</v>
+        <v>5496.59427126987</v>
       </c>
       <c r="D172" t="n">
-        <v>5402.073381866452</v>
+        <v>5402.072895656739</v>
       </c>
       <c r="E172" t="n">
-        <v>5496.201433160348</v>
+        <v>5496.200938478707</v>
       </c>
       <c r="F172" t="n">
         <v>314269</v>
@@ -3881,16 +3881,16 @@
         <v>45181</v>
       </c>
       <c r="B173" t="n">
-        <v>5369.8125</v>
+        <v>5369.81201171875</v>
       </c>
       <c r="C173" t="n">
-        <v>5497.676887764447</v>
+        <v>5497.676387856389</v>
       </c>
       <c r="D173" t="n">
-        <v>5335.387472524956</v>
+        <v>5335.386987374001</v>
       </c>
       <c r="E173" t="n">
-        <v>5477.513657386207</v>
+        <v>5477.513159311608</v>
       </c>
       <c r="F173" t="n">
         <v>245635</v>
@@ -4001,16 +4001,16 @@
         <v>45190</v>
       </c>
       <c r="B179" t="n">
-        <v>5248.63525390625</v>
+        <v>5248.6357421875</v>
       </c>
       <c r="C179" t="n">
-        <v>5318.125002329097</v>
+        <v>5318.125497074988</v>
       </c>
       <c r="D179" t="n">
-        <v>5203.096060827495</v>
+        <v>5203.096544872228</v>
       </c>
       <c r="E179" t="n">
-        <v>5306.86291043379</v>
+        <v>5306.863404131967</v>
       </c>
       <c r="F179" t="n">
         <v>377880</v>
@@ -4061,16 +4061,16 @@
         <v>45195</v>
       </c>
       <c r="B182" t="n">
-        <v>5107.88720703125</v>
+        <v>5107.88671875</v>
       </c>
       <c r="C182" t="n">
-        <v>5173.737075936378</v>
+        <v>5173.736581360303</v>
       </c>
       <c r="D182" t="n">
-        <v>5085.363020034754</v>
+        <v>5085.362533906672</v>
       </c>
       <c r="E182" t="n">
-        <v>5173.589636162222</v>
+        <v>5173.589141600241</v>
       </c>
       <c r="F182" t="n">
         <v>295546</v>
@@ -4101,16 +4101,16 @@
         <v>45197</v>
       </c>
       <c r="B184" t="n">
-        <v>5039.134765625</v>
+        <v>5039.13525390625</v>
       </c>
       <c r="C184" t="n">
-        <v>5165.376341157866</v>
+        <v>5165.376841671651</v>
       </c>
       <c r="D184" t="n">
-        <v>4994.136341891059</v>
+        <v>4994.136825812059</v>
       </c>
       <c r="E184" t="n">
-        <v>5150.918119392686</v>
+        <v>5150.918618505501</v>
       </c>
       <c r="F184" t="n">
         <v>448004</v>
@@ -4121,16 +4121,16 @@
         <v>45198</v>
       </c>
       <c r="B185" t="n">
-        <v>5020.59521484375</v>
+        <v>5020.5947265625</v>
       </c>
       <c r="C185" t="n">
-        <v>5080.150318340097</v>
+        <v>5080.149824266778</v>
       </c>
       <c r="D185" t="n">
-        <v>4967.039517447723</v>
+        <v>4967.039034375068</v>
       </c>
       <c r="E185" t="n">
-        <v>5060.380421436503</v>
+        <v>5060.379929285917</v>
       </c>
       <c r="F185" t="n">
         <v>567361</v>
@@ -4181,16 +4181,16 @@
         <v>45204</v>
       </c>
       <c r="B188" t="n">
-        <v>5120.18212890625</v>
+        <v>5120.181640625</v>
       </c>
       <c r="C188" t="n">
-        <v>5157.557873493623</v>
+        <v>5157.557381648071</v>
       </c>
       <c r="D188" t="n">
-        <v>5066.380536041002</v>
+        <v>5066.380052890489</v>
       </c>
       <c r="E188" t="n">
-        <v>5070.314824944936</v>
+        <v>5070.314341419234</v>
       </c>
       <c r="F188" t="n">
         <v>312135</v>
@@ -4201,16 +4201,16 @@
         <v>45205</v>
       </c>
       <c r="B189" t="n">
-        <v>5100.3623046875</v>
+        <v>5100.36279296875</v>
       </c>
       <c r="C189" t="n">
-        <v>5156.81972957877</v>
+        <v>5156.820223264951</v>
       </c>
       <c r="D189" t="n">
-        <v>5081.379554540741</v>
+        <v>5081.380041004685</v>
       </c>
       <c r="E189" t="n">
-        <v>5154.803118541321</v>
+        <v>5154.803612034442</v>
       </c>
       <c r="F189" t="n">
         <v>195339</v>
@@ -4221,16 +4221,16 @@
         <v>45208</v>
       </c>
       <c r="B190" t="n">
-        <v>5054.33203125</v>
+        <v>5054.33154296875</v>
       </c>
       <c r="C190" t="n">
-        <v>5131.19810853632</v>
+        <v>5131.197612829308</v>
       </c>
       <c r="D190" t="n">
-        <v>5034.80802552732</v>
+        <v>5034.807539132215</v>
       </c>
       <c r="E190" t="n">
-        <v>5076.216514382146</v>
+        <v>5076.216023986713</v>
       </c>
       <c r="F190" t="n">
         <v>179747</v>
@@ -4281,16 +4281,16 @@
         <v>45211</v>
       </c>
       <c r="B193" t="n">
-        <v>5013.1689453125</v>
+        <v>5013.16845703125</v>
       </c>
       <c r="C193" t="n">
-        <v>5103.756039090475</v>
+        <v>5103.755541986067</v>
       </c>
       <c r="D193" t="n">
-        <v>4984.743805378786</v>
+        <v>4984.743319866137</v>
       </c>
       <c r="E193" t="n">
-        <v>5086.936858770157</v>
+        <v>5086.936363303934</v>
       </c>
       <c r="F193" t="n">
         <v>619118</v>
@@ -4301,16 +4301,16 @@
         <v>45212</v>
       </c>
       <c r="B194" t="n">
-        <v>4924.40185546875</v>
+        <v>4924.4013671875</v>
       </c>
       <c r="C194" t="n">
-        <v>5054.528750874276</v>
+        <v>5054.528249690236</v>
       </c>
       <c r="D194" t="n">
-        <v>4915.648158591615</v>
+        <v>4915.647671178343</v>
       </c>
       <c r="E194" t="n">
-        <v>4974.90838600498</v>
+        <v>4974.907892715733</v>
       </c>
       <c r="F194" t="n">
         <v>437090</v>
@@ -4321,16 +4321,16 @@
         <v>45215</v>
       </c>
       <c r="B195" t="n">
-        <v>4957.35107421875</v>
+        <v>4957.3515625</v>
       </c>
       <c r="C195" t="n">
-        <v>5005.201763249303</v>
+        <v>5005.202256243674</v>
       </c>
       <c r="D195" t="n">
-        <v>4919.188666914632</v>
+        <v>4919.189151437022</v>
       </c>
       <c r="E195" t="n">
-        <v>4927.6964699575</v>
+        <v>4927.696955317879</v>
       </c>
       <c r="F195" t="n">
         <v>341417</v>
@@ -4341,16 +4341,16 @@
         <v>45216</v>
       </c>
       <c r="B196" t="n">
-        <v>4978.546875</v>
+        <v>4978.54736328125</v>
       </c>
       <c r="C196" t="n">
-        <v>5010.316060349812</v>
+        <v>5010.316551746891</v>
       </c>
       <c r="D196" t="n">
-        <v>4939.843218489705</v>
+        <v>4939.843702975014</v>
       </c>
       <c r="E196" t="n">
-        <v>4994.480454173858</v>
+        <v>4994.480944017827</v>
       </c>
       <c r="F196" t="n">
         <v>215994</v>
@@ -4361,16 +4361,16 @@
         <v>45217</v>
       </c>
       <c r="B197" t="n">
-        <v>5008.447265625</v>
+        <v>5008.44775390625</v>
       </c>
       <c r="C197" t="n">
-        <v>5065.39599051495</v>
+        <v>5065.396484348218</v>
       </c>
       <c r="D197" t="n">
-        <v>4942.4494858908</v>
+        <v>4942.449967737824</v>
       </c>
       <c r="E197" t="n">
-        <v>4992.562673279517</v>
+        <v>4992.563160012153</v>
       </c>
       <c r="F197" t="n">
         <v>626397</v>
@@ -4401,16 +4401,16 @@
         <v>45219</v>
       </c>
       <c r="B199" t="n">
-        <v>4917.958984375</v>
+        <v>4917.95849609375</v>
       </c>
       <c r="C199" t="n">
-        <v>5082.854751931235</v>
+        <v>5082.854247278253</v>
       </c>
       <c r="D199" t="n">
-        <v>4898.189088987964</v>
+        <v>4898.188602669576</v>
       </c>
       <c r="E199" t="n">
-        <v>5038.83990017778</v>
+        <v>5038.839399894826</v>
       </c>
       <c r="F199" t="n">
         <v>473723</v>
@@ -4441,16 +4441,16 @@
         <v>45224</v>
       </c>
       <c r="B201" t="n">
-        <v>4818.568359375</v>
+        <v>4818.56884765625</v>
       </c>
       <c r="C201" t="n">
-        <v>4895.237991184116</v>
+        <v>4895.23848723455</v>
       </c>
       <c r="D201" t="n">
-        <v>4783.159766310377</v>
+        <v>4783.160251003559</v>
       </c>
       <c r="E201" t="n">
-        <v>4867.697974356076</v>
+        <v>4867.698467615791</v>
       </c>
       <c r="F201" t="n">
         <v>338564</v>
@@ -4461,16 +4461,16 @@
         <v>45225</v>
       </c>
       <c r="B202" t="n">
-        <v>4823.8310546875</v>
+        <v>4823.83154296875</v>
       </c>
       <c r="C202" t="n">
-        <v>4875.419604971084</v>
+        <v>4875.420098474267</v>
       </c>
       <c r="D202" t="n">
-        <v>4678.409819324542</v>
+        <v>4678.410292885861</v>
       </c>
       <c r="E202" t="n">
-        <v>4799.831990785538</v>
+        <v>4799.832476637538</v>
       </c>
       <c r="F202" t="n">
         <v>878546</v>
@@ -4501,16 +4501,16 @@
         <v>45229</v>
       </c>
       <c r="B204" t="n">
-        <v>4906.697265625</v>
+        <v>4906.6962890625</v>
       </c>
       <c r="C204" t="n">
-        <v>4943.433782644293</v>
+        <v>4943.432798770255</v>
       </c>
       <c r="D204" t="n">
-        <v>4866.76413901685</v>
+        <v>4866.763170402098</v>
       </c>
       <c r="E204" t="n">
-        <v>4916.680427212074</v>
+        <v>4916.679448662661</v>
       </c>
       <c r="F204" t="n">
         <v>266860</v>
@@ -4521,16 +4521,16 @@
         <v>45230</v>
       </c>
       <c r="B205" t="n">
-        <v>4902.369140625</v>
+        <v>4902.36962890625</v>
       </c>
       <c r="C205" t="n">
-        <v>4947.318576793036</v>
+        <v>4947.319069551299</v>
       </c>
       <c r="D205" t="n">
-        <v>4871.33763359932</v>
+        <v>4871.338118789799</v>
       </c>
       <c r="E205" t="n">
-        <v>4947.318576793036</v>
+        <v>4947.319069551299</v>
       </c>
       <c r="F205" t="n">
         <v>224233</v>
@@ -4541,16 +4541,16 @@
         <v>45231</v>
       </c>
       <c r="B206" t="n">
-        <v>4944.0234375</v>
+        <v>4944.02392578125</v>
       </c>
       <c r="C206" t="n">
-        <v>4989.316738984925</v>
+        <v>4989.317231739428</v>
       </c>
       <c r="D206" t="n">
-        <v>4883.632208766834</v>
+        <v>4883.632691083731</v>
       </c>
       <c r="E206" t="n">
-        <v>4915.893180391777</v>
+        <v>4915.893665894829</v>
       </c>
       <c r="F206" t="n">
         <v>331862</v>
@@ -4601,16 +4601,16 @@
         <v>45236</v>
       </c>
       <c r="B209" t="n">
-        <v>5050.3564453125</v>
+        <v>5050.35595703125</v>
       </c>
       <c r="C209" t="n">
-        <v>5087.578002534141</v>
+        <v>5087.577510654217</v>
       </c>
       <c r="D209" t="n">
-        <v>5023.600889998407</v>
+        <v>5023.600404303953</v>
       </c>
       <c r="E209" t="n">
-        <v>5065.75848561394</v>
+        <v>5065.757995843582</v>
       </c>
       <c r="F209" t="n">
         <v>263008</v>
@@ -4621,16 +4621,16 @@
         <v>45237</v>
       </c>
       <c r="B210" t="n">
-        <v>5023.0078125</v>
+        <v>5023.00830078125</v>
       </c>
       <c r="C210" t="n">
-        <v>5059.834058029075</v>
+        <v>5059.834549890165</v>
       </c>
       <c r="D210" t="n">
-        <v>5001.3362973604</v>
+        <v>5001.336783534985</v>
       </c>
       <c r="E210" t="n">
-        <v>5059.834058029075</v>
+        <v>5059.834549890165</v>
       </c>
       <c r="F210" t="n">
         <v>64545</v>
@@ -4681,16 +4681,16 @@
         <v>45240</v>
       </c>
       <c r="B213" t="n">
-        <v>5073.75537109375</v>
+        <v>5073.755859375</v>
       </c>
       <c r="C213" t="n">
-        <v>5083.628411317712</v>
+        <v>5083.62890054911</v>
       </c>
       <c r="D213" t="n">
-        <v>5009.580609638001</v>
+        <v>5009.581091743286</v>
       </c>
       <c r="E213" t="n">
-        <v>5035.250514220301</v>
+        <v>5035.250998795972</v>
       </c>
       <c r="F213" t="n">
         <v>156660</v>
@@ -4721,16 +4721,16 @@
         <v>45245</v>
       </c>
       <c r="B215" t="n">
-        <v>5275.412109375</v>
+        <v>5275.41259765625</v>
       </c>
       <c r="C215" t="n">
-        <v>5286.568451766243</v>
+        <v>5286.568941080101</v>
       </c>
       <c r="D215" t="n">
-        <v>5060.130664543616</v>
+        <v>5060.13113289886</v>
       </c>
       <c r="E215" t="n">
-        <v>5080.370396587257</v>
+        <v>5080.37086681585</v>
       </c>
       <c r="F215" t="n">
         <v>467034</v>
@@ -4741,16 +4741,16 @@
         <v>45246</v>
       </c>
       <c r="B216" t="n">
-        <v>5628.71875</v>
+        <v>5628.71923828125</v>
       </c>
       <c r="C216" t="n">
-        <v>5666.088301615951</v>
+        <v>5666.088793138942</v>
       </c>
       <c r="D216" t="n">
-        <v>5240.214638480267</v>
+        <v>5240.215093059483</v>
       </c>
       <c r="E216" t="n">
-        <v>5261.589672977212</v>
+        <v>5261.590129410673</v>
       </c>
       <c r="F216" t="n">
         <v>1104408</v>
@@ -4761,16 +4761,16 @@
         <v>45247</v>
       </c>
       <c r="B217" t="n">
-        <v>5602.9013671875</v>
+        <v>5602.90185546875</v>
       </c>
       <c r="C217" t="n">
-        <v>5676.850344852651</v>
+        <v>5676.850839578401</v>
       </c>
       <c r="D217" t="n">
-        <v>5533.839255369291</v>
+        <v>5533.839737631921</v>
       </c>
       <c r="E217" t="n">
-        <v>5612.823580156007</v>
+        <v>5612.824069301957</v>
       </c>
       <c r="F217" t="n">
         <v>487295</v>
@@ -4781,16 +4781,16 @@
         <v>45250</v>
       </c>
       <c r="B218" t="n">
-        <v>5635.9755859375</v>
+        <v>5635.97607421875</v>
       </c>
       <c r="C218" t="n">
-        <v>5772.025881270451</v>
+        <v>5772.026381338624</v>
       </c>
       <c r="D218" t="n">
-        <v>5579.452433198097</v>
+        <v>5579.452916582379</v>
       </c>
       <c r="E218" t="n">
-        <v>5598.06272751742</v>
+        <v>5598.063212514032</v>
       </c>
       <c r="F218" t="n">
         <v>482383</v>
@@ -4841,16 +4841,16 @@
         <v>45253</v>
       </c>
       <c r="B221" t="n">
-        <v>5548.302734375</v>
+        <v>5548.30322265625</v>
       </c>
       <c r="C221" t="n">
-        <v>5597.91475954512</v>
+        <v>5597.915252192503</v>
       </c>
       <c r="D221" t="n">
-        <v>5519.62174648757</v>
+        <v>5519.622232244735</v>
       </c>
       <c r="E221" t="n">
-        <v>5568.789292032313</v>
+        <v>5568.789782116493</v>
       </c>
       <c r="F221" t="n">
         <v>191077</v>
@@ -4901,16 +4901,16 @@
         <v>45259</v>
       </c>
       <c r="B224" t="n">
-        <v>5622.44921875</v>
+        <v>5622.44970703125</v>
       </c>
       <c r="C224" t="n">
-        <v>5642.294124736071</v>
+        <v>5642.294614740751</v>
       </c>
       <c r="D224" t="n">
-        <v>5505.947351624577</v>
+        <v>5505.947829788231</v>
       </c>
       <c r="E224" t="n">
-        <v>5505.947351624577</v>
+        <v>5505.947829788231</v>
       </c>
       <c r="F224" t="n">
         <v>552016</v>
@@ -4921,16 +4921,16 @@
         <v>45260</v>
       </c>
       <c r="B225" t="n">
-        <v>5687.71044921875</v>
+        <v>5687.7109375</v>
       </c>
       <c r="C225" t="n">
-        <v>5696.744184568165</v>
+        <v>5696.744673624948</v>
       </c>
       <c r="D225" t="n">
-        <v>5602.950302846506</v>
+        <v>5602.950783851226</v>
       </c>
       <c r="E225" t="n">
-        <v>5626.645599281451</v>
+        <v>5626.646082320377</v>
       </c>
       <c r="F225" t="n">
         <v>351758</v>
@@ -4981,16 +4981,16 @@
         <v>45265</v>
       </c>
       <c r="B228" t="n">
-        <v>5534.6787109375</v>
+        <v>5534.67822265625</v>
       </c>
       <c r="C228" t="n">
-        <v>5602.407867702684</v>
+        <v>5602.407373446222</v>
       </c>
       <c r="D228" t="n">
-        <v>5436.096301462418</v>
+        <v>5436.09582187832</v>
       </c>
       <c r="E228" t="n">
-        <v>5584.685566513289</v>
+        <v>5584.685073820326</v>
       </c>
       <c r="F228" t="n">
         <v>322669</v>
@@ -5061,16 +5061,16 @@
         <v>45271</v>
       </c>
       <c r="B232" t="n">
-        <v>5790.291015625</v>
+        <v>5790.29150390625</v>
       </c>
       <c r="C232" t="n">
-        <v>5832.991912752035</v>
+        <v>5832.992404634148</v>
       </c>
       <c r="D232" t="n">
-        <v>5725.030126142768</v>
+        <v>5725.030608920724</v>
       </c>
       <c r="E232" t="n">
-        <v>5734.261514770451</v>
+        <v>5734.261998326868</v>
       </c>
       <c r="F232" t="n">
         <v>484446</v>
@@ -5101,16 +5101,16 @@
         <v>45273</v>
       </c>
       <c r="B234" t="n">
-        <v>5756.4267578125</v>
+        <v>5756.42724609375</v>
       </c>
       <c r="C234" t="n">
-        <v>5800.213304228767</v>
+        <v>5800.213796224152</v>
       </c>
       <c r="D234" t="n">
-        <v>5620.277151535999</v>
+        <v>5620.277628268539</v>
       </c>
       <c r="E234" t="n">
-        <v>5785.552225600904</v>
+        <v>5785.552716352683</v>
       </c>
       <c r="F234" t="n">
         <v>405773</v>
@@ -5141,16 +5141,16 @@
         <v>45275</v>
       </c>
       <c r="B236" t="n">
-        <v>6358.08984375</v>
+        <v>6358.09033203125</v>
       </c>
       <c r="C236" t="n">
-        <v>6447.095204094561</v>
+        <v>6447.095699211142</v>
       </c>
       <c r="D236" t="n">
-        <v>6096.651451890634</v>
+        <v>6096.651920094239</v>
       </c>
       <c r="E236" t="n">
-        <v>6118.026969435076</v>
+        <v>6118.027439280255</v>
       </c>
       <c r="F236" t="n">
         <v>1260254</v>
@@ -5161,16 +5161,16 @@
         <v>45278</v>
       </c>
       <c r="B237" t="n">
-        <v>6359.32470703125</v>
+        <v>6359.32421875</v>
       </c>
       <c r="C237" t="n">
-        <v>6395.854959719882</v>
+        <v>6395.854468633769</v>
       </c>
       <c r="D237" t="n">
-        <v>6250.671598636482</v>
+        <v>6250.671118697827</v>
       </c>
       <c r="E237" t="n">
-        <v>6348.365534808241</v>
+        <v>6348.365047368458</v>
       </c>
       <c r="F237" t="n">
         <v>603544</v>
@@ -5181,16 +5181,16 @@
         <v>45279</v>
       </c>
       <c r="B238" t="n">
-        <v>6193.7529296875</v>
+        <v>6193.75244140625</v>
       </c>
       <c r="C238" t="n">
-        <v>6358.237875491626</v>
+        <v>6358.237374243292</v>
       </c>
       <c r="D238" t="n">
-        <v>6181.510456281533</v>
+        <v>6181.509968965412</v>
       </c>
       <c r="E238" t="n">
-        <v>6358.188703123546</v>
+        <v>6358.188201879088</v>
       </c>
       <c r="F238" t="n">
         <v>327439</v>
@@ -5261,16 +5261,16 @@
         <v>45286</v>
       </c>
       <c r="B242" t="n">
-        <v>6196.36962890625</v>
+        <v>6196.369140625</v>
       </c>
       <c r="C242" t="n">
-        <v>6262.173832039729</v>
+        <v>6262.17333857303</v>
       </c>
       <c r="D242" t="n">
-        <v>6165.714029805459</v>
+        <v>6165.713543939907</v>
       </c>
       <c r="E242" t="n">
-        <v>6220.015754647621</v>
+        <v>6220.015264503028</v>
       </c>
       <c r="F242" t="n">
         <v>256576</v>
@@ -5281,16 +5281,16 @@
         <v>45287</v>
       </c>
       <c r="B243" t="n">
-        <v>6219.42333984375</v>
+        <v>6219.4228515625</v>
       </c>
       <c r="C243" t="n">
-        <v>6313.760535676904</v>
+        <v>6313.760039989326</v>
       </c>
       <c r="D243" t="n">
-        <v>6201.158214026877</v>
+        <v>6201.157727179605</v>
       </c>
       <c r="E243" t="n">
-        <v>6236.79998838865</v>
+        <v>6236.799498743176</v>
       </c>
       <c r="F243" t="n">
         <v>348740</v>
@@ -5321,16 +5321,16 @@
         <v>45289</v>
       </c>
       <c r="B245" t="n">
-        <v>6194.74072265625</v>
+        <v>6194.740234375</v>
       </c>
       <c r="C245" t="n">
-        <v>6239.761885843945</v>
+        <v>6239.761394014041</v>
       </c>
       <c r="D245" t="n">
-        <v>6134.120347586777</v>
+        <v>6134.11986408374</v>
       </c>
       <c r="E245" t="n">
-        <v>6198.295113817767</v>
+        <v>6198.294625256353</v>
       </c>
       <c r="F245" t="n">
         <v>220563</v>
